--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\Desktop\faks\ntpr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C93F8A-8C7D-41A6-87AA-9469352B862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA6C67B-1A2D-41A3-8304-B345438146B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>NAPREDNE TEHNIKE PROGRAMIRANJA</t>
   </si>
@@ -1050,9 +1050,6 @@
   </si>
   <si>
     <t>Uporabom MyBatis implementiranih sučelja ostvarena je komunikacija s bazom podataka koja definirane SQL skripte mapira na Java metode te koristi resultMap svojstvo za mapiranje podatka dobavljenih iz tablica baze podataka na polja POJO objekata.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi Flyway migracijski alat za inicijalizaciju, ažuriranje i validaciju DDL-a i DML-a baze podataka. Koristi poseban direktorij u kojemu se definirane skripte izvode prilikom pokretanja aplikacije. U bazi podataka dodana je posebna tablica koja vodi računa o već obavljenim skriptama te determinira hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
   </si>
   <si>
     <t>Aplikacija integrira JavaScrip skriptu za dinamičko ažuriranje HTML-a - korisničko sučelje sadrži sat koji se ažurira svake sekunde bez potrebe za osvježavanjem stranice. Ovaj podatak se također koristi kod generacije PDF dokumenta kako bi sadržavao timestamp.</t>
@@ -1364,27 +1361,15 @@
     <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uporabom Json Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora.</t>
   </si>
   <si>
-    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token, te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput preranog isteka sesije.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi Thymeleaf Engine-a za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom predloška. U predlošku su navedene varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz modela koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: </t>
   </si>
   <si>
     <t>Uporabom vanjse aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže dvije funkcije, jedna skida sadržaj s servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, a druga otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalazi i pomoćne funkcije za: dobavljanje korisnikovog direktorija za preuzimanja, formatiranje vrijednosti za prikaz, funkcije korištene za obavljanje preuzimanja curl bibliotekom, funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
   </si>
   <si>
-    <t>Uporabom Bouncy Castle API-a te iText alata za generiranje PDF dokumenata ostvareno je digitalno potpisivanje zapisa o ocjenama studenta. Kada korisnik pritisne na gumb za skidanje datoteke, datoteka se prvotno generira na poslužitelju, digitalno potpisuje uporabom generiranog para ključeva koji se nalazi u direktoriju core/resources/other u ntpr_keystore.p12 datoteci te sprema u bazu podataka. Klijent tada otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za skidanje datoteke. Skidanje datoteke se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se tako skidanje datoteke vršilo na poslužitelju. Certifikat valjanosti spremljen je u samu PDF datoteku. TODO signature verification</t>
-  </si>
-  <si>
     <t>Aplikacija se spaja na lokalnu MySQL bazu podataka koju koristi za spremanje i čitanje podataka o profesorima, studentima, kolegijima, ocjenama te korisničkim računima. Tablice: course, grade, professor, student, user. Sve navedene tablice podržavaju sve CRUD operacije uporabom service sloja.</t>
   </si>
   <si>
-    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu te njezin installer kompajliran pomoću Inno Setup alata koji također registrira prilagođeni URL protokol koji pokreće tu aplikaciju. Aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu.</t>
-  </si>
-  <si>
     <t>Aplikacija ima funkcionalnost generiranja i spremanja izvještaja o ocjenama studenta. Sadržaj se generira iz HTML-a stranice te se pretvara u PDF elemente uporabom iText alata. Rezultat je PDF dokument koji sadrži informacije o studentu (master tablica) te popis ocjena (detail tablica).</t>
   </si>
   <si>
@@ -1394,13 +1379,31 @@
     <t>U bazu podataka spremaju se PDF dokumenti generirani na poslužitelju kako bi se kasnije mogli dohvatiti s korisnikovog računala. Tablica podržava operacije čitanja, pisanja i brisanja.</t>
   </si>
   <si>
-    <t>Dinamička biblioteka sadrži dva dijaloga: prikaz statusa preuzimanja koji prikazuje ime datoteke, trenutnu brzinu preuzimanja, očekivano trajanje preuzimanja, traku napretka i postotak preuzimanja te obavještajni prozor koji prikazuje eventualne pogreške kod preuzimanja ili poruku o uspješnom preuzimanju.</t>
-  </si>
-  <si>
     <t>Uporabom java stream() API-a i pripadajuće comparator klase moguće je filtrirati i sortirati zapise iz svih navedenih tablica. Nekoliko tablica povezano je stranim ključevima, kao npr. grade.student_id i grade.course_id koji referenciraju na primaran ključ iz tablica student i course. Također se rabi izračunato polje koje u bazi podataka konkatenira vrijednosti imena, prezimena i korisničkog imena korisnika te se ta izračunata vrijednost prikazuje na potrebnim stranicama u formatu: Ime Prezime (Korisničko ime).</t>
   </si>
   <si>
     <t>Zasebna klijentska aplikacija ima mogućnost interpretiranja prilagođenog URL protokola (nije HTTP, budući da je sama aplikacija zamišljena da joj se pristupi iz preglednika). Kada korisnik klikne na gumb za preuzimanje datoteke priziva se prilagođeni protokol koji pokreće aplikaciju na korisnikovom računalu koja dobavlja sadržaj s poslužitelja uporabom curl biblioteke te ga sprema na korisnikovo računalo. Također je moguće postaviti ograničenje brzine skidanja sadržaja (u KB/s) upisivanjem brojke u dijalog. Aplikacija prikazuje tijek i postotak preuzimanja, ograničenje brzine te procijenu preostalog vremena. Sadržaj koji se preuzima je PDF datoteka koja sadrži podatke o odabranom studentu te njegov izvještaj o ocjenama.</t>
+  </si>
+  <si>
+    <t>Dinamička biblioteka sadrži dva dijaloga: prikaz statusa preuzimanja i obavještajni prozor koji prikazuje informacije o rezultatima preuzimanja ili verificiranja.</t>
+  </si>
+  <si>
+    <t>Uporabom java.security značajke ostvareno je digitalno potpisivanje zapisa o ocjenama studenta SHA256withRSA algoritmom. Kada korisnik pritisne na gumb za generiranje datoteke, datoteka se  generira na poslužitelju te automatski potpisuje, potpis se sprema u zasebnu datoteku te se obje datoteke spremaju u bazu podataka, stranica se tada osviježava te se gumb za generiranje pretvara u gumb za preuzimanje datoteke. Digitalni potpis se generira uporabom para ključeva koji se nalazi u direktoriju core/resources/other u keystore.p12 datoteci. Klijent klikom na gumb za preuzimanje otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za preuzimanje datoteke. Preuzimanje se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se kao takvo preuzimanje vršilo na poslužitelju. PDF datoteka i datoteka sa potpisom preuzimaju se u Zip paketu. Ako se klijentska aplikacija pokrene izravno, a ne protokolom, korisnik ima mogućnost odabira PDF datoteke i datoteke koja sadrži njen potpis. Aplikacija tada verificira potpis te korisniku javlja valjan li je potpis ili ne.</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi Flyway migracijski alat za inicijalizaciju, ažuriranje i validaciju DDL-a i DML-a baze podataka. Koristi poseban direktorij u kojemu se definirane SQL skripte izvode prilikom pokretanja aplikacije. U bazi podataka generirana je posebna tablica koja vodi računa o već obavljenim skriptama te odlućuje hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
+  </si>
+  <si>
+    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token, te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput preranog isteka sesije istekom access tokena.</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi Thymeleaf Engine za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom Thymeleaf predloška. U predlošku su navedene varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz modela koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
+  </si>
+  <si>
+    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu. Uporabom alata PyInstaller Python skripta se, zajedno sa potrebnim dinamičkim bibliotekama, pakira u .exe izvršivu datoteku. Ta aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu. Uporabom prilagođenog protokola ostvarena je mogućnost pozivanja ove klijentske aplikacije te vršenja zadataka lokalno na korisnikovom računalu.</t>
+  </si>
+  <si>
+    <t>Distribucija klijentske aplikacije vrši se installerom koji je kompajliran pomoću Inno Setup alata. Ovaj installer generira izvršivu datoteku u direktorij definiran od strane korisnika, u istom direktoriju generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol koji pokazuje na generiranu izvršivu datoteku u Windows registre (Computer\HKEY_CLASSES_ROOT\ntpr).</t>
   </si>
 </sst>
 </file>
@@ -1751,7 +1754,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1764,10 +1800,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1791,38 +1824,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2489,10 +2492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
-  <dimension ref="A1:AC58"/>
+  <dimension ref="A1:AC59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35:AC35"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2502,1860 +2505,1889 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="A7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="33" t="s">
+      <c r="J18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="15" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="10" t="s">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
     </row>
     <row r="20" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="10" t="s">
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="10" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
     </row>
     <row r="22" spans="1:29" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="27"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10" t="s">
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="27"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="27"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="27"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="14"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
     </row>
     <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
     </row>
     <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
     </row>
     <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
     </row>
     <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
     </row>
     <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
     </row>
     <row r="35" spans="1:29" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
     </row>
     <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
     </row>
     <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
     </row>
     <row r="38" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
     </row>
     <row r="39" spans="1:29" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
     </row>
     <row r="40" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
     </row>
     <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-      <c r="AA42" s="12"/>
-      <c r="AB42" s="12"/>
-      <c r="AC42" s="13"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="1:29" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="10"/>
-      <c r="AB43" s="10"/>
-      <c r="AC43" s="10"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
     </row>
     <row r="44" spans="1:29" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
     </row>
     <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
     </row>
     <row r="46" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="27"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
     </row>
     <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
     </row>
     <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="30"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="22"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="17"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="27"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="17"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="27"/>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="17"/>
+      <c r="B54" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="27"/>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="17"/>
+      <c r="B55" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="27"/>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="17"/>
+      <c r="B56" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="27"/>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="17"/>
+      <c r="B57" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="26"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="27"/>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>38</v>
       </c>
-      <c r="B58" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="19"/>
+      <c r="B58" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="26"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="27"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="9">
+        <v>39</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="28"/>
+      <c r="S59" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
+  <mergeCells count="110">
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="B59:S59"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4378,51 +4410,48 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B57:S57"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4648,18 +4677,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4682,6 +4711,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4696,12 +4733,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA6C67B-1A2D-41A3-8304-B345438146B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8076E922-3B74-4F50-975C-DF9283A701FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>NAPREDNE TEHNIKE PROGRAMIRANJA</t>
   </si>
@@ -1046,19 +1046,31 @@
     <t>Uporabom Cron Job Schedulera ostvarena je mogućnost periodičkog obavljanja poslova te je implementiran posao slanja e-maila studentima svakog 1. dana u mjesecu</t>
   </si>
   <si>
-    <t>U aplikaciji je implementirana konfiguracija i implementacija metode za slanje e-maila s priloškom, za realizaciju koristi se Spring Boot Mail, a za kompoziciju e-maila koristi se Jakarta Mail značajka Jakarta SDK-a</t>
-  </si>
-  <si>
-    <t>Uporabom MyBatis implementiranih sučelja ostvarena je komunikacija s bazom podataka koja definirane SQL skripte mapira na Java metode te koristi resultMap svojstvo za mapiranje podatka dobavljenih iz tablica baze podataka na polja POJO objekata.</t>
-  </si>
-  <si>
-    <t>Aplikacija integrira JavaScrip skriptu za dinamičko ažuriranje HTML-a - korisničko sučelje sadrži sat koji se ažurira svake sekunde bez potrebe za osvježavanjem stranice. Ovaj podatak se također koristi kod generacije PDF dokumenta kako bi sadržavao timestamp.</t>
-  </si>
-  <si>
     <t>Aplikacija u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost lang koja može biti ili "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
   </si>
   <si>
-    <t>Aplikacije se spaja na timeapi.io rest servis (https://timeapi.io/api/time/current/zone?timeZone=Europe/Zagreb) za dobavljanje trenutnog datuma i vremena. Dobiveni .json dokument se parsira te se iz njega vadi dateTime vrijednost koja se formatira i prikazuje na ekranu</t>
+    <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uporabom Json Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora.</t>
+  </si>
+  <si>
+    <t>Aplikacija se spaja na lokalnu MySQL bazu podataka koju koristi za spremanje i čitanje podataka o profesorima, studentima, kolegijima, ocjenama te korisničkim računima. Tablice: course, grade, professor, student, user. Sve navedene tablice podržavaju sve CRUD operacije uporabom service sloja.</t>
+  </si>
+  <si>
+    <t>Aplikacija ima funkcionalnost generiranja i spremanja izvještaja o ocjenama studenta. Sadržaj se generira iz HTML-a stranice te se pretvara u PDF elemente uporabom iText alata. Rezultat je PDF dokument koji sadrži informacije o studentu (master tablica) te popis ocjena (detail tablica).</t>
+  </si>
+  <si>
+    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom ili udaljenom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
+  </si>
+  <si>
+    <t>U bazu podataka spremaju se PDF dokumenti generirani na poslužitelju kako bi se kasnije mogli dohvatiti s korisnikovog računala. Tablica podržava operacije čitanja, pisanja i brisanja.</t>
+  </si>
+  <si>
+    <t>Uporabom java stream() API-a i pripadajuće comparator klase moguće je filtrirati i sortirati zapise iz svih navedenih tablica. Nekoliko tablica povezano je stranim ključevima, kao npr. grade.student_id i grade.course_id koji referenciraju na primaran ključ iz tablica student i course. Također se rabi izračunato polje koje u bazi podataka konkatenira vrijednosti imena, prezimena i korisničkog imena korisnika te se ta izračunata vrijednost prikazuje na potrebnim stranicama u formatu: Ime Prezime (Korisničko ime).</t>
+  </si>
+  <si>
+    <t>Zasebna klijentska aplikacija ima mogućnost interpretiranja prilagođenog URL protokola (nije HTTP, budući da je sama aplikacija zamišljena da joj se pristupi iz preglednika). Kada korisnik klikne na gumb za preuzimanje datoteke priziva se prilagođeni protokol koji pokreće aplikaciju na korisnikovom računalu koja dobavlja sadržaj s poslužitelja uporabom curl biblioteke te ga sprema na korisnikovo računalo. Također je moguće postaviti ograničenje brzine skidanja sadržaja (u KB/s) upisivanjem brojke u dijalog. Aplikacija prikazuje tijek i postotak preuzimanja, ograničenje brzine te procijenu preostalog vremena. Sadržaj koji se preuzima je PDF datoteka koja sadrži podatke o odabranom studentu te njegov izvještaj o ocjenama.</t>
+  </si>
+  <si>
+    <t>Dinamička biblioteka sadrži dva dijaloga: prikaz statusa preuzimanja i obavještajni prozor koji prikazuje informacije o rezultatima preuzimanja ili verificiranja.</t>
   </si>
   <si>
     <r>
@@ -1104,9 +1116,9 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Ovaj projekt je namijenjen za studente i profesore te edukacijske institucije
-Aplikacija može biti korisna ili primijenjena za vođenje evidencije o ocjenama studenata
-Zadatak ili problem koji se rješava je …
+Ovaj projekt je namijenjen za: edukacijske institucije, profesore i studente
+Aplikacija može biti korisna ili primijenjena za: vođenje evidencije o ocjenama studenata, izradu izvještaja o ocjenama, automatsko slanje e-pošte s izvještajima
+Zadatak ili problem koji se rješava je: upravljanje korisničkim računima u edukacijskoj ustanovi, vođenje evidencije, upisivanje ocjena, upisivanje kolegija i potrebnih informacija o njima
 </t>
     </r>
     <r>
@@ -1141,18 +1153,17 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> programskom jeziku (i razvojnom okruženju) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Java - Spring Framework (uključene tehnologije: Spring Boot, Spring Security, Spring Mail, Thymeleaf, Flyway, MyBatis, JUnit)
-Aplikacija koristi bazu podataka MySQL za samu aplikaciju i H2 za implementaciju JUnit testova (</t>
+      <t xml:space="preserve"> programskom jeziku (i razvojnom okruženju):
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -1163,17 +1174,23 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t>koju implementaciju: MS Access, MySQL, PostgreSQL, itd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Java - Spring Framework - glavne funkcionalnosti, API za bazu podataka, 
+    - HTML + CSS
+    - Python
+    - C++
+Aplikacija koristi bazu podataka:
+    - MySQL - baza podataka korištena u aplikaciji
+    - H2 - implementacija JUnit testova
 Ključne funkcionalnosti aplikacije </t>
     </r>
     <r>
@@ -1228,7 +1245,7 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">- obični ili neregistrirani korisnik: </t>
+      <t xml:space="preserve">    - obični ili neregistrirani korisnik: </t>
     </r>
     <r>
       <rPr>
@@ -1269,16 +1286,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- administrator: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mogućnost izrade novih kolegija, mogućnost mijenjanja postavki ostalih korisnika, autorizacija novoregistriranih profesora</t>
+    - administrator: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mogućnost izrade novih kolegija, mogućnost mijenjanja postavki ostalih korisnika, autorizacija novoregistriranih profesora, dodjeljivanje kolegija profesorima</t>
     </r>
     <r>
       <rPr>
@@ -1290,16 +1307,16 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- registrirani korisnik: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pregled ocjena po kolegijima, izrada izvještaja o ocjenama na zahtjev, automatska izrada i slanje izvještaja o ocjenama na e-mail adresu</t>
+    - registrirani korisnik </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(student)</t>
     </r>
     <r>
       <rPr>
@@ -1310,8 +1327,48 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pregled ocjena po kolegijima, automatska izrada i slanje izvještaja o ocjenama na e-mail adresu, izrada i preuzimanje izvještaja o ocjenama na zahtjev</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-- korisnik s posebnim ovlastima: </t>
+    - korisnik s posebnim ovlastima </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(profesor)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
@@ -1358,65 +1415,202 @@
     </r>
   </si>
   <si>
-    <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uporabom Json Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: </t>
-  </si>
-  <si>
-    <t>Uporabom vanjse aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže dvije funkcije, jedna skida sadržaj s servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, a druga otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalazi i pomoćne funkcije za: dobavljanje korisnikovog direktorija za preuzimanja, formatiranje vrijednosti za prikaz, funkcije korištene za obavljanje preuzimanja curl bibliotekom, funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
-  </si>
-  <si>
-    <t>Aplikacija se spaja na lokalnu MySQL bazu podataka koju koristi za spremanje i čitanje podataka o profesorima, studentima, kolegijima, ocjenama te korisničkim računima. Tablice: course, grade, professor, student, user. Sve navedene tablice podržavaju sve CRUD operacije uporabom service sloja.</t>
-  </si>
-  <si>
-    <t>Aplikacija ima funkcionalnost generiranja i spremanja izvještaja o ocjenama studenta. Sadržaj se generira iz HTML-a stranice te se pretvara u PDF elemente uporabom iText alata. Rezultat je PDF dokument koji sadrži informacije o studentu (master tablica) te popis ocjena (detail tablica).</t>
-  </si>
-  <si>
-    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom ili udaljenom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
-  </si>
-  <si>
-    <t>U bazu podataka spremaju se PDF dokumenti generirani na poslužitelju kako bi se kasnije mogli dohvatiti s korisnikovog računala. Tablica podržava operacije čitanja, pisanja i brisanja.</t>
-  </si>
-  <si>
-    <t>Uporabom java stream() API-a i pripadajuće comparator klase moguće je filtrirati i sortirati zapise iz svih navedenih tablica. Nekoliko tablica povezano je stranim ključevima, kao npr. grade.student_id i grade.course_id koji referenciraju na primaran ključ iz tablica student i course. Također se rabi izračunato polje koje u bazi podataka konkatenira vrijednosti imena, prezimena i korisničkog imena korisnika te se ta izračunata vrijednost prikazuje na potrebnim stranicama u formatu: Ime Prezime (Korisničko ime).</t>
-  </si>
-  <si>
-    <t>Zasebna klijentska aplikacija ima mogućnost interpretiranja prilagođenog URL protokola (nije HTTP, budući da je sama aplikacija zamišljena da joj se pristupi iz preglednika). Kada korisnik klikne na gumb za preuzimanje datoteke priziva se prilagođeni protokol koji pokreće aplikaciju na korisnikovom računalu koja dobavlja sadržaj s poslužitelja uporabom curl biblioteke te ga sprema na korisnikovo računalo. Također je moguće postaviti ograničenje brzine skidanja sadržaja (u KB/s) upisivanjem brojke u dijalog. Aplikacija prikazuje tijek i postotak preuzimanja, ograničenje brzine te procijenu preostalog vremena. Sadržaj koji se preuzima je PDF datoteka koja sadrži podatke o odabranom studentu te njegov izvještaj o ocjenama.</t>
-  </si>
-  <si>
-    <t>Dinamička biblioteka sadrži dva dijaloga: prikaz statusa preuzimanja i obavještajni prozor koji prikazuje informacije o rezultatima preuzimanja ili verificiranja.</t>
-  </si>
-  <si>
-    <t>Uporabom java.security značajke ostvareno je digitalno potpisivanje zapisa o ocjenama studenta SHA256withRSA algoritmom. Kada korisnik pritisne na gumb za generiranje datoteke, datoteka se  generira na poslužitelju te automatski potpisuje, potpis se sprema u zasebnu datoteku te se obje datoteke spremaju u bazu podataka, stranica se tada osviježava te se gumb za generiranje pretvara u gumb za preuzimanje datoteke. Digitalni potpis se generira uporabom para ključeva koji se nalazi u direktoriju core/resources/other u keystore.p12 datoteci. Klijent klikom na gumb za preuzimanje otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za preuzimanje datoteke. Preuzimanje se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se kao takvo preuzimanje vršilo na poslužitelju. PDF datoteka i datoteka sa potpisom preuzimaju se u Zip paketu. Ako se klijentska aplikacija pokrene izravno, a ne protokolom, korisnik ima mogućnost odabira PDF datoteke i datoteke koja sadrži njen potpis. Aplikacija tada verificira potpis te korisniku javlja valjan li je potpis ili ne.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi Flyway migracijski alat za inicijalizaciju, ažuriranje i validaciju DDL-a i DML-a baze podataka. Koristi poseban direktorij u kojemu se definirane SQL skripte izvode prilikom pokretanja aplikacije. U bazi podataka generirana je posebna tablica koja vodi računa o već obavljenim skriptama te odlućuje hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
-  </si>
-  <si>
-    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token, te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput preranog isteka sesije istekom access tokena.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi Thymeleaf Engine za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom Thymeleaf predloška. U predlošku su navedene varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz modela koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
-  </si>
-  <si>
-    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu. Uporabom alata PyInstaller Python skripta se, zajedno sa potrebnim dinamičkim bibliotekama, pakira u .exe izvršivu datoteku. Ta aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu. Uporabom prilagođenog protokola ostvarena je mogućnost pozivanja ove klijentske aplikacije te vršenja zadataka lokalno na korisnikovom računalu.</t>
-  </si>
-  <si>
-    <t>Distribucija klijentske aplikacije vrši se installerom koji je kompajliran pomoću Inno Setup alata. Ovaj installer generira izvršivu datoteku u direktorij definiran od strane korisnika, u istom direktoriju generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol koji pokazuje na generiranu izvršivu datoteku u Windows registre (Computer\HKEY_CLASSES_ROOT\ntpr).</t>
+    <t>Uporabom MyBatis implementiranih sučelja ostvarena je komunikacija s bazom podataka koja definirane SQL skripte mapira na Java metode te koristi resultMap svojstvo za mapiranje podatka
+dobavljenih iz tablica baze podataka na polja POJO objekata.</t>
+  </si>
+  <si>
+    <t>U aplikaciji je implementirana konfiguracija i implementacija metode za slanje e-maila s priloškom, za realizaciju koristi se Spring Boot Mail, a za kompoziciju e-maila koristi se Jakarta Mail značajka
+Jakarta SDK-a</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi Flyway migracijski alat za inicijalizaciju, ažuriranje i validaciju DDL-a i DML-a baze podataka. Koristi poseban direktorij u kojemu se definirane SQL skripte izvode prilikom pokretanja
+aplikacije. U bazi podataka generirana je posebna tablica koja vodi računa o već obavljenim skriptama te odlućuje hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
+  </si>
+  <si>
+    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token
+te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput
+preranog isteka sesije istekom access tokena.</t>
+  </si>
+  <si>
+    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu. Uporabom alata PyInstaller Python skripta se, zajedno sa potrebnim dinamičkim bibliotekama, pakira u .exe izvršivu datoteku.
+Ta aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu. Uporabom prilagođenog protokola ostvarena je mogućnost pozivanja ove klijentske aplikacije te
+vršenja zadataka lokalno na korisnikovom računalu.</t>
+  </si>
+  <si>
+    <t>Distribucija klijentske aplikacije vrši se installerom koji je kompajliran pomoću Inno Setup alata. Ovaj installer generira izvršivu datoteku u direktorij definiran od strane korisnika, u istom direktoriju
+generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol koji pokazuje na generiranu izvršivu datoteku u Windows registre
+(Computer\HKEY_CLASSES_ROOT\ntpr).</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi Thymeleaf Engine za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom Thymeleaf predloška. U predlošku su navedene
+varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz modela koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju
+stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
+  </si>
+  <si>
+    <t>Uporabom vanjske aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se  može pokrenuti ručno ili se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže tri funkcije, jedna skida sadržaj sa servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, druga vrši verifikaciju digitalnog potpisa, a treća otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalaze i pomoćne funkcije: funkcija za dobavljanje korisnikovog direktorija za preuzimanja, funkcije za formatiranje vrijednosti za prikaz, funkcija za učitavanje sirovih bajtova datoteka u vektor, funkcije korištene za obavljanje preuzimanja curl bibliotekom (header_callback, write_callback, progress_callback), funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aplikacije se spaja na api-ninjas.com REST servis za dobavljanje trenutnog datuma i vremena. Dobiveni .json dokument se parsira te se iz njega vadi dateTime vrijednost koja se formatira i prikazuje na ekranu. Link na servis je </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://api.api-ninjas.com/v1/worldtime?timezone=Europe/Zagreb</t>
+    </r>
+  </si>
+  <si>
+    <t>Uporabom java.security značajke ostvareno je digitalno potpisivanje zapisa o ocjenama studenta SHA256withRSA algoritmom. Kada korisnik pritisne na gumb za generiranje datoteke, datoteka se  generira na poslužitelju te automatski potpisuje, potpis se sprema u zasebnu datoteku te se obje datoteke spremaju u bazu podataka, stranica se tada osviježava te se gumb za generiranje pretvara u gumb za preuzimanje datoteke. Digitalni potpis se generira uporabom para ključeva koji se nalazi u direktoriju core/resources/other u keystore.p12 datoteci. Klijent klikom na gumb za preuzimanje otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za preuzimanje datoteke. Preuzimanje se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se kao takvo preuzimanje vršilo na poslužitelju. PDF datoteka i datoteka sa potpisom preuzimaju se u Zip paketu. Ako se klijentska aplikacija pokrene izravno, a ne protokolom, korisnik ima mogućnost odabira PDF datoteke i datoteke koja sadrži njen potpis. Aplikacija tada verificira potpis te korisniku javlja rezultat verifikacije.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: 
+gdje je:
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duljina korisničkog imena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">znak na poziciji </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u korisničkom imenu</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1529,6 +1723,29 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1722,10 +1939,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1736,13 +1953,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1751,43 +1968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1800,7 +1981,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1814,7 +1998,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1824,8 +2008,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1850,14 +2079,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1344930</xdr:rowOff>
+      <xdr:rowOff>1047750</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3970020" cy="415290"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="1402080" cy="575310"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -1871,8 +2100,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12275820" y="30720030"/>
-              <a:ext cx="3970020" cy="415290"/>
+              <a:off x="13510260" y="33653730"/>
+              <a:ext cx="1402080" cy="575310"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1900,172 +2129,277 @@
             <a:lstStyle/>
             <a:p>
               <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:r>
-                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>(</m:t>
-                  </m:r>
-                  <m:nary>
-                    <m:naryPr>
-                      <m:chr m:val="∑"/>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-GB" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:naryPr>
-                    <m:sub>
-                      <m:r>
-                        <m:rPr>
-                          <m:brk m:alnAt="23"/>
-                        </m:rPr>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>=</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>0</m:t>
-                      </m:r>
-                    </m:sub>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>.</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑙𝑒𝑛𝑔𝑡h</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>()</m:t>
-                      </m:r>
-                    </m:sup>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="hr-HR" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>[</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑖</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>]×</m:t>
-                      </m:r>
-                      <m:sSup>
-                        <m:sSupPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:sSupPr>
-                        <m:e>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>31</m:t>
-                          </m:r>
-                        </m:e>
-                        <m:sup>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>.</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑙𝑒𝑛𝑔𝑡h</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>()−</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>𝑖</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            </a:rPr>
-                            <m:t>+1</m:t>
-                          </m:r>
-                        </m:sup>
-                      </m:sSup>
-                    </m:e>
-                  </m:nary>
-                </m:oMath>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:nary>
+                          <m:naryPr>
+                            <m:chr m:val="∑"/>
+                            <m:limLoc m:val="undOvr"/>
+                            <m:grow m:val="on"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:naryPr>
+                          <m:sub>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>=0</m:t>
+                            </m:r>
+                          </m:sub>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−1</m:t>
+                            </m:r>
+                          </m:sup>
+                          <m:e>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑐</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑖</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                          </m:e>
+                        </m:nary>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>×</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>31</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑛</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>−</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑖</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:d>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>mod</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>8</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                  </m:oMath>
+                </m:oMathPara>
               </a14:m>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>) % 8</a:t>
-              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2079,8 +2413,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12275820" y="30720030"/>
-              <a:ext cx="3970020" cy="415290"/>
+              <a:off x="13510260" y="33653730"/>
+              <a:ext cx="1402080" cy="575310"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2108,83 +2442,114 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
+                <a:t>(∑129_(𝑖=0)^(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" i="0">
+                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>∑24_(</a:t>
+                <a:t>𝑛</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="hr-HR" sz="1100" b="0" i="0">
+                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1)▒𝑐_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑖</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=</a:t>
+                <a:t> ×31^(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="hr-HR" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>0</a:t>
+                <a:t>𝑛</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)^(</a:t>
+                <a:t>−</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="hr-HR" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒.𝑙𝑒𝑛𝑔𝑡ℎ()</a:t>
+                <a:t>𝑖</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)▒〖</a:t>
+                <a:t>) )  mod⁡8</a:t>
               </a:r>
-              <a:r>
-                <a:rPr lang="hr-HR" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>[𝑖]</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>×31^(𝑢𝑠𝑒𝑟𝑛𝑎𝑚𝑒.𝑙𝑒𝑛𝑔𝑡ℎ()−𝑖+1)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> 〗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>) % 8</a:t>
-              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2492,10 +2857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
-  <dimension ref="A1:AC59"/>
+  <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2505,1889 +2870,1860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="A7" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="29"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-    </row>
-    <row r="13" spans="1:19" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+    </row>
+    <row r="13" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
     </row>
     <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
     </row>
     <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="34" t="s">
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-    </row>
-    <row r="19" spans="1:29" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+    </row>
+    <row r="19" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="17" t="s">
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
-    </row>
-    <row r="20" spans="1:29" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+    </row>
+    <row r="20" spans="1:29" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="17" t="s">
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
     </row>
     <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="17" t="s">
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
     </row>
     <row r="22" spans="1:29" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
     </row>
     <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17" t="s">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
     </row>
     <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
     </row>
     <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="26"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
     </row>
     <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="26"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
     </row>
     <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
     </row>
     <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
     </row>
     <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
     </row>
     <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
     </row>
     <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
     </row>
     <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17" t="s">
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
     </row>
     <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
     </row>
     <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
-    </row>
-    <row r="35" spans="1:29" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+    </row>
+    <row r="35" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
     </row>
     <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
     </row>
     <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
-    </row>
-    <row r="38" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+    </row>
+    <row r="38" spans="1:29" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
-    </row>
-    <row r="39" spans="1:29" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+    </row>
+    <row r="39" spans="1:29" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-    </row>
-    <row r="40" spans="1:29" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+    </row>
+    <row r="40" spans="1:29" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
     </row>
     <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
     </row>
     <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
-    </row>
-    <row r="43" spans="1:29" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+      <c r="AC42" s="12"/>
+    </row>
+    <row r="43" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-    </row>
-    <row r="44" spans="1:29" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="U43" s="38"/>
+      <c r="V43" s="38"/>
+      <c r="W43" s="38"/>
+      <c r="X43" s="38"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="38"/>
+      <c r="AA43" s="38"/>
+      <c r="AB43" s="38"/>
+      <c r="AC43" s="38"/>
+    </row>
+    <row r="44" spans="1:29" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
     </row>
     <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-    </row>
-    <row r="46" spans="1:29" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
+      <c r="Z45" s="9"/>
+      <c r="AA45" s="9"/>
+      <c r="AB45" s="9"/>
+      <c r="AC45" s="9"/>
+    </row>
+    <row r="46" spans="1:29" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="9"/>
+      <c r="AB46" s="9"/>
+      <c r="AC46" s="9"/>
     </row>
     <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
+      <c r="Z47" s="9"/>
+      <c r="AA47" s="9"/>
+      <c r="AB47" s="9"/>
+      <c r="AC47" s="9"/>
     </row>
     <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="9"/>
+      <c r="AB48" s="9"/>
+      <c r="AC48" s="9"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="30"/>
-      <c r="S50" s="30"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+    </row>
+    <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B51" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="21"/>
+    </row>
+    <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="27"/>
+      <c r="B52" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="15"/>
+      <c r="P52" s="15"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="15"/>
+      <c r="S52" s="16"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="27"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="15"/>
+      <c r="S53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="27"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B54" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="15"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="15"/>
+      <c r="S54" s="16"/>
+    </row>
+    <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
-      <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="27"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B55" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="15"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="15"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="15"/>
+      <c r="S55" s="16"/>
+    </row>
+    <row r="56" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
-      <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="27"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B56" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="16"/>
+    </row>
+    <row r="57" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="27"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58" s="8">
+      <c r="B57" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15"/>
+      <c r="K57" s="15"/>
+      <c r="L57" s="15"/>
+      <c r="M57" s="15"/>
+      <c r="N57" s="15"/>
+      <c r="O57" s="15"/>
+      <c r="P57" s="15"/>
+      <c r="Q57" s="15"/>
+      <c r="R57" s="15"/>
+      <c r="S57" s="16"/>
+    </row>
+    <row r="58" spans="1:19" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="37">
         <v>38</v>
       </c>
-      <c r="B58" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="27"/>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59" s="9">
-        <v>39</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="28"/>
-      <c r="Q59" s="28"/>
-      <c r="R59" s="28"/>
-      <c r="S59" s="29"/>
+      <c r="B58" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="B59:S59"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B57:S57"/>
+  <mergeCells count="109">
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4410,48 +4746,51 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4677,18 +5016,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4711,14 +5050,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -4733,4 +5064,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8076E922-3B74-4F50-975C-DF9283A701FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B300F-078E-417D-97C4-6AA81592C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
   <si>
     <t>NAPREDNE TEHNIKE PROGRAMIRANJA</t>
   </si>
@@ -1046,9 +1046,6 @@
     <t>Uporabom Cron Job Schedulera ostvarena je mogućnost periodičkog obavljanja poslova te je implementiran posao slanja e-maila studentima svakog 1. dana u mjesecu</t>
   </si>
   <si>
-    <t>Aplikacija u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost lang koja može biti ili "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
-  </si>
-  <si>
     <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uporabom Json Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora.</t>
   </si>
   <si>
@@ -1056,9 +1053,6 @@
   </si>
   <si>
     <t>Aplikacija ima funkcionalnost generiranja i spremanja izvještaja o ocjenama studenta. Sadržaj se generira iz HTML-a stranice te se pretvara u PDF elemente uporabom iText alata. Rezultat je PDF dokument koji sadrži informacije o studentu (master tablica) te popis ocjena (detail tablica).</t>
-  </si>
-  <si>
-    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom ili udaljenom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
   </si>
   <si>
     <t>U bazu podataka spremaju se PDF dokumenti generirani na poslužitelju kako bi se kasnije mogli dohvatiti s korisnikovog računala. Tablica podržava operacije čitanja, pisanja i brisanja.</t>
@@ -1591,6 +1585,15 @@
       </rPr>
       <t xml:space="preserve"> u korisničkom imenu</t>
     </r>
+  </si>
+  <si>
+    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost lang koja može biti ili "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +1971,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1981,16 +2020,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2002,56 +2044,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2085,8 +2088,8 @@
       <xdr:rowOff>1047750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1402080" cy="575310"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2128,6 +2131,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2142,7 +2146,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2160,7 +2164,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2173,7 +2177,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2185,7 +2189,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2211,7 +2215,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2227,7 +2231,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2240,7 +2244,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2270,7 +2274,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2284,7 +2288,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2297,7 +2301,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2323,7 +2327,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -2353,7 +2357,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2369,7 +2373,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2383,7 +2387,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -2399,7 +2403,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -2859,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,1370 +2874,1372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
+      <c r="A7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="14" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="37"/>
     </row>
     <row r="19" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="9" t="s">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
     </row>
     <row r="20" spans="1:29" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="33" t="s">
+      <c r="J20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="9" t="s">
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="33" t="s">
+      <c r="J21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="9" t="s">
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-    </row>
-    <row r="22" spans="1:29" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+    </row>
+    <row r="22" spans="1:29" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9" t="s">
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="9" t="s">
+      <c r="J25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="9" t="s">
+      <c r="J26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
     </row>
     <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
     </row>
     <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
     </row>
     <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9" t="s">
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
     </row>
     <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
     </row>
     <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
     </row>
     <row r="35" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
     </row>
     <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
     </row>
     <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
     </row>
     <row r="38" spans="1:29" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
     </row>
     <row r="39" spans="1:29" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="9" t="s">
+      <c r="J39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
     </row>
     <row r="40" spans="1:29" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="9"/>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="9"/>
-      <c r="AB40" s="9"/>
-      <c r="AC40" s="9"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
     </row>
     <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="J41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="J42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="9"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-      <c r="AC42" s="12"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J43" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
       <c r="T43" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U43" s="38"/>
       <c r="V43" s="38"/>
@@ -4249,481 +4255,484 @@
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="J44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="9"/>
-      <c r="AB44" s="9"/>
-      <c r="AC44" s="9"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
     </row>
     <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="9" t="s">
+      <c r="J45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-      <c r="AA45" s="9"/>
-      <c r="AB45" s="9"/>
-      <c r="AC45" s="9"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
     </row>
     <row r="46" spans="1:29" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="26"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="9" t="s">
+      <c r="J46" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="9"/>
-      <c r="AB46" s="9"/>
-      <c r="AC46" s="9"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
     </row>
     <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="J47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="U47" s="9"/>
-      <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-      <c r="AA47" s="9"/>
-      <c r="AB47" s="9"/>
-      <c r="AC47" s="9"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
     </row>
     <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="9" t="s">
+      <c r="J48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="19"/>
-      <c r="S50" s="19"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="21"/>
+      <c r="B51" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="35"/>
     </row>
     <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="15"/>
-      <c r="L52" s="15"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="15"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="15"/>
-      <c r="S52" s="16"/>
+      <c r="B52" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="28"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="15"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="15"/>
-      <c r="R53" s="15"/>
-      <c r="S53" s="16"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="28"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15"/>
-      <c r="R54" s="15"/>
-      <c r="S54" s="16"/>
+      <c r="B54" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="28"/>
     </row>
     <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="15"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="15"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="15"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
-      <c r="R55" s="15"/>
-      <c r="S55" s="16"/>
+      <c r="B55" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
     </row>
     <row r="56" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="15"/>
-      <c r="L56" s="15"/>
-      <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
-      <c r="O56" s="15"/>
-      <c r="P56" s="15"/>
-      <c r="Q56" s="15"/>
-      <c r="R56" s="15"/>
-      <c r="S56" s="16"/>
+      <c r="B56" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
     </row>
     <row r="57" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="15"/>
-      <c r="L57" s="15"/>
-      <c r="M57" s="15"/>
-      <c r="N57" s="15"/>
-      <c r="O57" s="15"/>
-      <c r="P57" s="15"/>
-      <c r="Q57" s="15"/>
-      <c r="R57" s="15"/>
-      <c r="S57" s="16"/>
+      <c r="B57" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="28"/>
     </row>
     <row r="58" spans="1:19" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="37">
+      <c r="A58" s="9">
         <v>38</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="18"/>
+      <c r="B58" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4746,51 +4755,48 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B57:S57"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5016,18 +5022,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5050,6 +5056,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5064,12 +5078,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779B300F-078E-417D-97C4-6AA81592C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981B3CDD-5C87-4910-9BDC-195100D800C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>

--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981B3CDD-5C87-4910-9BDC-195100D800C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4143E1C8-7A07-47C4-BFEC-C95AFA9F593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -1593,7 +1593,7 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost lang koja može biti ili "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
+    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
   </si>
 </sst>
 </file>
@@ -2863,8 +2863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AD22" sqref="AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4143E1C8-7A07-47C4-BFEC-C95AFA9F593F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95EE827-002F-4709-B45E-9A3B6495F048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>NAPREDNE TEHNIKE PROGRAMIRANJA</t>
   </si>
@@ -1588,9 +1588,6 @@
   </si>
   <si>
     <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
-  </si>
-  <si>
-    <t>TODO</t>
   </si>
   <si>
     <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
@@ -2863,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,7 +3393,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
@@ -3719,9 +3716,7 @@
       <c r="Q30" s="17"/>
       <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="17" t="s">
-        <v>95</v>
-      </c>
+      <c r="T30" s="17"/>
       <c r="U30" s="17"/>
       <c r="V30" s="17"/>
       <c r="W30" s="17"/>

--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95EE827-002F-4709-B45E-9A3B6495F048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF5504-4A53-42E7-A7E1-573C8A861BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -1971,41 +1971,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2017,7 +1987,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2050,11 +2023,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2860,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
@@ -2871,1863 +2871,1860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
     </row>
     <row r="13" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
     </row>
     <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="37" t="s">
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="16"/>
+      <c r="AC18" s="16"/>
     </row>
     <row r="19" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="17" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
+      <c r="Y19" s="15"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
     </row>
     <row r="20" spans="1:29" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="17" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
     </row>
     <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="17" t="s">
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="38"/>
+      <c r="R21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
     </row>
     <row r="22" spans="1:29" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="31"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17" t="s">
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
     </row>
     <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="31"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
     </row>
     <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
     </row>
     <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17" t="s">
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
     </row>
     <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17" t="s">
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
     </row>
     <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
     </row>
     <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17" t="s">
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
     </row>
     <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="15"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
     </row>
     <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
     </row>
     <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17" t="s">
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
     </row>
     <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
     </row>
     <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
     </row>
     <row r="35" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17" t="s">
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
     </row>
     <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
     </row>
     <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
     </row>
     <row r="38" spans="1:29" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17" t="s">
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
     </row>
     <row r="39" spans="1:29" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17" t="s">
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
     </row>
     <row r="40" spans="1:29" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17" t="s">
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
     </row>
     <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
     </row>
     <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="14"/>
     </row>
     <row r="43" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="38" t="s">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="U43" s="38"/>
-      <c r="V43" s="38"/>
-      <c r="W43" s="38"/>
-      <c r="X43" s="38"/>
-      <c r="Y43" s="38"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="38"/>
-      <c r="AB43" s="38"/>
-      <c r="AC43" s="38"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
     </row>
     <row r="44" spans="1:29" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17" t="s">
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
     </row>
     <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="10"/>
+      <c r="AB45" s="10"/>
+      <c r="AC45" s="10"/>
     </row>
     <row r="46" spans="1:29" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17" t="s">
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+      <c r="AA46" s="10"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
     </row>
     <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17" t="s">
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
     </row>
     <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
+      <c r="K48" s="10"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10"/>
+      <c r="T48" s="10"/>
+      <c r="U48" s="10"/>
+      <c r="V48" s="10"/>
+      <c r="W48" s="10"/>
+      <c r="X48" s="10"/>
+      <c r="Y48" s="10"/>
+      <c r="Z48" s="10"/>
+      <c r="AA48" s="10"/>
+      <c r="AB48" s="10"/>
+      <c r="AC48" s="10"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="23"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="23"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="35"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="26"/>
     </row>
     <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="28"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="19"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="28"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="19"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="28"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="19"/>
     </row>
     <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="28"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="19"/>
     </row>
     <row r="56" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="19"/>
     </row>
     <row r="57" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="28"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="19"/>
     </row>
     <row r="58" spans="1:19" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>38</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="31"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4750,48 +4747,51 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5017,18 +5017,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5051,14 +5051,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5073,4 +5065,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF5504-4A53-42E7-A7E1-573C8A861BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C2AE78-184E-414E-865D-7F47F6128945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -1028,15 +1028,9 @@
     </r>
   </si>
   <si>
-    <t>Aplikacija koristi web sučelje te sadrži web forme koje međusobno kominiciraju uporabom Spring MVC session funkcionalnosti. Popis stranica s formama: courses.html, grades.html, login.html, profile.html, signup.html; Primjer: signup.html i profile.html i njihove pripadajuće controller klase komuniciranju na način da se na /signup stranici upisuju podaci vezani za korisnički račun, a na /profile se upisuju osobni podaci o korisniku. Dva rezultirajuća objekta se zatim upisuju u pripadajuće tablice u bazi podataka i vežu stranim ključem.</t>
-  </si>
-  <si>
     <t>Svaki od entitetskih service klasa sadrži metode save i delete kojom se kreiraju ili brišu podaci iz baze podataka. Primjer je klasa CourseController koja omogućava administrator korisniku da kreira ili briše zapise iz course tablice. Aplikacija također sadrži mogućnost autorizacije profesora mjenjanjem podataka u profesor tablici koja se vrši u AuthorizationController klasi. Validacija promjena vrši se ovisno o povratnoj vrijednosti procesa koji se poziva.</t>
   </si>
   <si>
-    <t>Aplikacija serijaliziranjem i deserijaliziranjem te parsiranjem .json datoteka komunicira s sučeljem (REST servisom) baze podataka. Podaci se u REST servisu dobavljaju preko MyBatis sučelja koja su implementirana u .xml datotekama te se mappiraju u POJO objekte koji se potom serijaliziraju u .json i šalju aplikaciji koja ih deserijalizira natrag u POJO objekte te prikazuje korisniku. .xml datotekama je realizirana obrada podataka (dobavljanje, spremanje, ažuriranje i brisanje u/iz baze podataka), a .json datotekama je realiziran prijenos podataka između aplikacija (glavne aplikacije i REST servisa)</t>
-  </si>
-  <si>
     <t>Podržani jezici su hrvatski i engleski, promjena jezika korisničkog sučelja vrši se promjenom vrijednosti ključa u Windows registru, te automatskim osvježavanjem Thymeleaf templatea. Aplikacija sadrži 13 prevedenih dijaloga.</t>
   </si>
   <si>
@@ -1046,12 +1040,6 @@
     <t>Uporabom Cron Job Schedulera ostvarena je mogućnost periodičkog obavljanja poslova te je implementiran posao slanja e-maila studentima svakog 1. dana u mjesecu</t>
   </si>
   <si>
-    <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uporabom Json Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora.</t>
-  </si>
-  <si>
-    <t>Aplikacija se spaja na lokalnu MySQL bazu podataka koju koristi za spremanje i čitanje podataka o profesorima, studentima, kolegijima, ocjenama te korisničkim računima. Tablice: course, grade, professor, student, user. Sve navedene tablice podržavaju sve CRUD operacije uporabom service sloja.</t>
-  </si>
-  <si>
     <t>Aplikacija ima funkcionalnost generiranja i spremanja izvještaja o ocjenama studenta. Sadržaj se generira iz HTML-a stranice te se pretvara u PDF elemente uporabom iText alata. Rezultat je PDF dokument koji sadrži informacije o studentu (master tablica) te popis ocjena (detail tablica).</t>
   </si>
   <si>
@@ -1061,10 +1049,158 @@
     <t>Uporabom java stream() API-a i pripadajuće comparator klase moguće je filtrirati i sortirati zapise iz svih navedenih tablica. Nekoliko tablica povezano je stranim ključevima, kao npr. grade.student_id i grade.course_id koji referenciraju na primaran ključ iz tablica student i course. Također se rabi izračunato polje koje u bazi podataka konkatenira vrijednosti imena, prezimena i korisničkog imena korisnika te se ta izračunata vrijednost prikazuje na potrebnim stranicama u formatu: Ime Prezime (Korisničko ime).</t>
   </si>
   <si>
-    <t>Zasebna klijentska aplikacija ima mogućnost interpretiranja prilagođenog URL protokola (nije HTTP, budući da je sama aplikacija zamišljena da joj se pristupi iz preglednika). Kada korisnik klikne na gumb za preuzimanje datoteke priziva se prilagođeni protokol koji pokreće aplikaciju na korisnikovom računalu koja dobavlja sadržaj s poslužitelja uporabom curl biblioteke te ga sprema na korisnikovo računalo. Također je moguće postaviti ograničenje brzine skidanja sadržaja (u KB/s) upisivanjem brojke u dijalog. Aplikacija prikazuje tijek i postotak preuzimanja, ograničenje brzine te procijenu preostalog vremena. Sadržaj koji se preuzima je PDF datoteka koja sadrži podatke o odabranom studentu te njegov izvještaj o ocjenama.</t>
-  </si>
-  <si>
     <t>Dinamička biblioteka sadrži dva dijaloga: prikaz statusa preuzimanja i obavještajni prozor koji prikazuje informacije o rezultatima preuzimanja ili verificiranja.</t>
+  </si>
+  <si>
+    <t>Uporabom MyBatis implementiranih sučelja ostvarena je komunikacija s bazom podataka koja definirane SQL skripte mapira na Java metode te koristi resultMap svojstvo za mapiranje podatka
+dobavljenih iz tablica baze podataka na polja POJO objekata.</t>
+  </si>
+  <si>
+    <t>U aplikaciji je implementirana konfiguracija i implementacija metode za slanje e-maila s priloškom, za realizaciju koristi se Spring Boot Mail, a za kompoziciju e-maila koristi se Jakarta Mail značajka
+Jakarta SDK-a</t>
+  </si>
+  <si>
+    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token
+te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput
+preranog isteka sesije istekom access tokena.</t>
+  </si>
+  <si>
+    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu. Uporabom alata PyInstaller Python skripta se, zajedno sa potrebnim dinamičkim bibliotekama, pakira u .exe izvršivu datoteku.
+Ta aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu. Uporabom prilagođenog protokola ostvarena je mogućnost pozivanja ove klijentske aplikacije te
+vršenja zadataka lokalno na korisnikovom računalu.</t>
+  </si>
+  <si>
+    <t>Uporabom vanjske aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se  može pokrenuti ručno ili se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže tri funkcije, jedna skida sadržaj sa servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, druga vrši verifikaciju digitalnog potpisa, a treća otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalaze i pomoćne funkcije: funkcija za dobavljanje korisnikovog direktorija za preuzimanja, funkcije za formatiranje vrijednosti za prikaz, funkcija za učitavanje sirovih bajtova datoteka u vektor, funkcije korištene za obavljanje preuzimanja curl bibliotekom (header_callback, write_callback, progress_callback), funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: 
+gdje je:
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>duljina korisničkog imena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    - </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ᵢ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">znak na poziciji </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> u korisničkom imenu</t>
+    </r>
+  </si>
+  <si>
+    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
   </si>
   <si>
     <r>
@@ -1179,9 +1315,8 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Java - Spring Framework - glavne funkcionalnosti, API za bazu podataka, 
-    - HTML + CSS
-    - Python
-    - C++
+    - HTML + CSS - korisnička sučelja
+    - Python + C++ - korisnička aplikacija za preuzimanje izvještaja o ocjenama i validiranje digitalno potpisanog sadržaja
 Aplikacija koristi bazu podataka:
     - MySQL - baza podataka korištena u aplikaciji
     - H2 - implementacija JUnit testova
@@ -1409,188 +1544,60 @@
     </r>
   </si>
   <si>
-    <t>Uporabom MyBatis implementiranih sučelja ostvarena je komunikacija s bazom podataka koja definirane SQL skripte mapira na Java metode te koristi resultMap svojstvo za mapiranje podatka
-dobavljenih iz tablica baze podataka na polja POJO objekata.</t>
-  </si>
-  <si>
-    <t>U aplikaciji je implementirana konfiguracija i implementacija metode za slanje e-maila s priloškom, za realizaciju koristi se Spring Boot Mail, a za kompoziciju e-maila koristi se Jakarta Mail značajka
-Jakarta SDK-a</t>
+    <t>Aplikacija koristi web sučelje te sadrži web forme koje međusobno kominiciraju uporabom Spring MVC session funkcionalnosti. Popis stranica s formama: courses.html, grades.html, login.html, profile.html, signup.html; Primjer: signup.html i profile.html i njihove pripadajuće controller klase komuniciranju na način da se na /signup stranici upisuju podaci vezani za korisnički račun, u slučaju da se na signup stranici odabrala uloga student na /profile stranici se upisuju osobni podaci o studentu, u protivnom polja za unos za podatke koji postoje u klasi Student, a ne postoje u klasi Professor su izostavljena. Dva rezultirajuća objekta se zatim upisuju u pripadajuće tablice u bazi podataka i vežu stranim ključem.</t>
+  </si>
+  <si>
+    <t>Aplikacija serijaliziranjem i deserijaliziranjem .json formata podataka komunicira sa sučeljem (REST servisom) baze podataka. Podaci se u REST servisu dobavljaju preko MyBatis sučelja koja su implementirana u .xml datotekama te se mappiraju u POJO objekte koji se potom serijaliziraju u .json i šalju aplikaciji koja ih deserijalizira natrag u POJO objekte te prikazuje korisniku. .xml datotekama je realizirana obrada podataka (dobavljanje, spremanje, ažuriranje i brisanje u/iz baze podataka), a .json datotekama je realiziran prijenos podataka između aplikacija (glavne aplikacije i REST servisa)</t>
+  </si>
+  <si>
+    <t>Aplikacija se spaja na lokalnu MySQL bazu podataka koju koristi za spremanje i čitanje podataka o profesorima, studentima, kolegijima, ocjenama te korisničkim računima. Tablice: course, grade, professor, student, user, tokens, report. Sve navedene tablice podržavaju sve CRUD operacije uporabom servisnog sloja.</t>
+  </si>
+  <si>
+    <t>Zasebna klijentska aplikacija ima mogućnost interpretiranja prilagođenog URL protokola (nije HTTP, budući da je sama aplikacija zamišljena da joj se pristupi iz preglednika, ali klijentska aplikacija sama po sebi koristi curl biblioteku koja preuzima sadržaj HTTP protokolom). Kada korisnik klikne na gumb za preuzimanje datoteke priziva se prilagođeni protokol koji pokreće aplikaciju na korisnikovom računalu koja dobavlja sadržaj s poslužitelja uporabom curl biblioteke te ga sprema na korisnikovo računalo. Također je moguće postaviti ograničenje brzine skidanja sadržaja (u KB/s) upisivanjem brojke u dijalog. Aplikacija prikazuje tijek i postotak preuzimanja, ograničenje brzine te procijenu preostalog vremena. Sadržaj koji se preuzima je zip arhiva koja sadrži PDF datoteku sa podatke o odabranom studentu te njegov izvještaj o ocjenama i pripadajući odvojeni digitalni potpis.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aplikacije se spaja na api-ninjas.com REST servis za dobavljanje trenutnog datuma i vremena. Dobiveni .json objekt se parsira te se iz njega vadi dateTime vrijednost koja se formatira i prikazuje na ekranu. Link na servis je </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://api.api-ninjas.com/v1/worldtime?timezone=Europe/Zagreb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>osim prikaza na ekranu, ovaj se podatak također koristi kod generacije izvještaja o ocjenama kako bi se osiguralo jedinstveno ime datoteke dodavanjem timestampa</t>
+    </r>
+  </si>
+  <si>
+    <t>Uporabom Spring Security značajke Spring Framework-a ostvarena je autentifikacija korisnika uz implementaciju JSON Web Token sustava. Prilikom prijave ili registracije poslužitelj s bazom podataka izdaje korisniku access token kojim korisnik može pristupiti podatku iz baze. Također, u istom se koraku izdaje refresh token koji se sprema u bazu podataka. Nakon što korisnikov access token istekne, korisnik poslužitelju šalje refresh token koji se validira te se izdaje novi access token. U aplikaciji je također implementirana autorizacija novoregistriranih profesora kojom se novim profesorima onemogućava pristup ocjenama ukoliko nisu autorizirani od strane administratora. Ako HTTP zahtjev na REST servis ne uključuje validan access token, tj. korisnik koji šalje zahtjev nije autentificiran, REST servis odbacuje zahtjev. Profesori koji nisu autorizirani u aplikaciji od strane administratora nemaju mogućnost upisivanja ocjena.</t>
+  </si>
+  <si>
+    <t>Uporabom java.security značajke ostvareno je digitalno potpisivanje zapisa o ocjenama studenta SHA256withRSA algoritmom. Kada korisnik pritisne na gumb za generiranje datoteke, datoteka se  generira na poslužitelju te automatski potpisuje, potpis se sprema u zasebnu datoteku te se obje datoteke spremaju u bazu podataka, stranica se tada osviježava te se gumb za generiranje pretvara u gumb za preuzimanje datoteke. Digitalni potpis se generira uporabom para ključeva koji se nalazi u direktoriju core/resources/other u keystore.p12 datoteci. Izvještaji se moraju digitalno potpisivat kako bi se osigurala točnost podataka u izvještaju. Ako se podaci u izvještaju promjene validacija potpisa će javiti neuspješnu validaciju. Klijent klikom na gumb za preuzimanje otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za preuzimanje datoteke. Preuzimanje se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se kao takvo preuzimanje vršilo na poslužitelju. PDF datoteka i datoteka sa potpisom preuzimaju se u .zip arhivi. Ako se klijentska aplikacija pokrene izravno, a ne protokolom, korisnik ima mogućnost odabira PDF datoteke i datoteke koja sadrži njen potpis. Aplikacija tada verificira potpis te korisniku javlja rezultat verifikacije.</t>
   </si>
   <si>
     <t>Aplikacija koristi Flyway migracijski alat za inicijalizaciju, ažuriranje i validaciju DDL-a i DML-a baze podataka. Koristi poseban direktorij u kojemu se definirane SQL skripte izvode prilikom pokretanja
-aplikacije. U bazi podataka generirana je posebna tablica koja vodi računa o već obavljenim skriptama te odlućuje hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
-  </si>
-  <si>
-    <t>Prilikom komunikacije između korisnika i poslužitelja koristi se implementacija JWT access tokena prilikom koje se korisnikov HTTP zahtjev interceptira, u header zahtjeva se ubaci korisnikov token
-te se pomoću njega zahtjev autorizira na poslužiteljskoj strani. Također je implementiran sustav korisničke sesije pomoću refresh tokena koji omogućuje sigurnu komunikaciju bez smetnji poput
-preranog isteka sesije istekom access tokena.</t>
-  </si>
-  <si>
-    <t>Projekt sadrži client-side aplikaciju implementiranu u Pythonu. Uporabom alata PyInstaller Python skripta se, zajedno sa potrebnim dinamičkim bibliotekama, pakira u .exe izvršivu datoteku.
-Ta aplikacija poziva funkcije implementirane u ugrađenoj DLL datoteci na korisnikovom računalu. Uporabom prilagođenog protokola ostvarena je mogućnost pozivanja ove klijentske aplikacije te
-vršenja zadataka lokalno na korisnikovom računalu.</t>
+aplikacije. U bazi podataka generirana je posebna tablica koja vodi računa o već obavljenim skriptama te prema njoj aplikacija odlućuje hoće li doći do ažuriranja baze podataka ili samo validacije.</t>
+  </si>
+  <si>
+    <t>Aplikacija koristi Thymeleaf Engine za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom Thymeleaf predloška. U predlošku su navedene
+varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz model objekta koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
   </si>
   <si>
     <t>Distribucija klijentske aplikacije vrši se installerom koji je kompajliran pomoću Inno Setup alata. Ovaj installer generira izvršivu datoteku u direktorij definiran od strane korisnika, u istom direktoriju
-generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol koji pokazuje na generiranu izvršivu datoteku u Windows registre
-(Computer\HKEY_CLASSES_ROOT\ntpr).</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi Thymeleaf Engine za generaciju HTML-a korisničkog sučelja popunjenim podacima iz aplikacije u web pregledniku uporabom Thymeleaf predloška. U predlošku su navedene
-varijable koje se tokom kompajliranja u HTML dinamički popunjavaju podacima iz modela koji definira kontroler web stranice. Ova generacija HTML-a stranice izvodi se pri svakom osvježavanju
-stranice. Predlošci su također modularni, tj. elementi koji se koriste u više predložaka izdvojeni su u posebne datoteke.</t>
-  </si>
-  <si>
-    <t>Uporabom vanjske aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se  može pokrenuti ručno ili se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže tri funkcije, jedna skida sadržaj sa servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, druga vrši verifikaciju digitalnog potpisa, a treća otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalaze i pomoćne funkcije: funkcija za dobavljanje korisnikovog direktorija za preuzimanja, funkcije za formatiranje vrijednosti za prikaz, funkcija za učitavanje sirovih bajtova datoteka u vektor, funkcije korištene za obavljanje preuzimanja curl bibliotekom (header_callback, write_callback, progress_callback), funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aplikacije se spaja na api-ninjas.com REST servis za dobavljanje trenutnog datuma i vremena. Dobiveni .json dokument se parsira te se iz njega vadi dateTime vrijednost koja se formatira i prikazuje na ekranu. Link na servis je </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://api.api-ninjas.com/v1/worldtime?timezone=Europe/Zagreb</t>
-    </r>
-  </si>
-  <si>
-    <t>Uporabom java.security značajke ostvareno je digitalno potpisivanje zapisa o ocjenama studenta SHA256withRSA algoritmom. Kada korisnik pritisne na gumb za generiranje datoteke, datoteka se  generira na poslužitelju te automatski potpisuje, potpis se sprema u zasebnu datoteku te se obje datoteke spremaju u bazu podataka, stranica se tada osviježava te se gumb za generiranje pretvara u gumb za preuzimanje datoteke. Digitalni potpis se generira uporabom para ključeva koji se nalazi u direktoriju core/resources/other u keystore.p12 datoteci. Klijent klikom na gumb za preuzimanje otvara URL prilagođenog protokola "ntpr://" koji pokreće aplikaciju za preuzimanje datoteke. Preuzimanje se vrši u posebnoj aplikaciji iz razloga što se Java kod izvršava server-side pa bi se kao takvo preuzimanje vršilo na poslužitelju. PDF datoteka i datoteka sa potpisom preuzimaju se u Zip paketu. Ako se klijentska aplikacija pokrene izravno, a ne protokolom, korisnik ima mogućnost odabira PDF datoteke i datoteke koja sadrži njen potpis. Aplikacija tada verificira potpis te korisniku javlja rezultat verifikacije.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: 
-gdje je:
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duljina korisničkog imena</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ᵢ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">znak na poziciji </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> u korisničkom imenu</t>
-    </r>
-  </si>
-  <si>
-    <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
+generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol u Windows registre (Computer\HKEY_CLASSES_ROOT\ntpr) koji pokazuje na generiranu izvršivu datoteku.</t>
   </si>
 </sst>
 </file>
@@ -1971,11 +1978,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1987,10 +2024,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1999,15 +2033,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2023,38 +2048,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2860,8 +2867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AC58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2871,1860 +2878,1863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
+      <c r="A7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-      <c r="P12" s="34"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
     </row>
     <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="37" t="s">
+      <c r="J18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="16" t="s">
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-      <c r="AB18" s="16"/>
-      <c r="AC18" s="16"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
     </row>
     <row r="19" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="15"/>
-      <c r="Y19" s="15"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="15"/>
-      <c r="AB19" s="15"/>
-      <c r="AC19" s="15"/>
-    </row>
-    <row r="20" spans="1:29" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+    </row>
+    <row r="20" spans="1:29" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="31"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="10"/>
-      <c r="AB20" s="10"/>
-      <c r="AC20" s="10"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
     </row>
     <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="J21" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="10"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
     </row>
     <row r="22" spans="1:29" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="31"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
     </row>
     <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="31"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
     </row>
     <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="10"/>
-      <c r="AB24" s="10"/>
-      <c r="AC24" s="10"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
     </row>
     <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="31"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="10"/>
-      <c r="AB25" s="10"/>
-      <c r="AC25" s="10"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
     </row>
     <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="31"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-      <c r="AA26" s="10"/>
-      <c r="AB26" s="10"/>
-      <c r="AC26" s="10"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
     </row>
     <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="10"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
     </row>
     <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
     </row>
     <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="20"/>
     </row>
     <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
-      <c r="Z30" s="10"/>
-      <c r="AA30" s="10"/>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
     </row>
     <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="10"/>
-      <c r="AB31" s="10"/>
-      <c r="AC31" s="10"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
     </row>
     <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
     </row>
     <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
-      <c r="AB33" s="10"/>
-      <c r="AC33" s="10"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
     </row>
     <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="10" t="s">
+      <c r="J34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="10"/>
-      <c r="AB34" s="10"/>
-      <c r="AC34" s="10"/>
-    </row>
-    <row r="35" spans="1:29" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+    </row>
+    <row r="35" spans="1:29" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="J35" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="10"/>
-      <c r="AB35" s="10"/>
-      <c r="AC35" s="10"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
     </row>
     <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
-      <c r="AA36" s="10"/>
-      <c r="AB36" s="10"/>
-      <c r="AC36" s="10"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
     </row>
     <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="10"/>
-      <c r="AB37" s="10"/>
-      <c r="AC37" s="10"/>
-    </row>
-    <row r="38" spans="1:29" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="17"/>
+      <c r="AC37" s="17"/>
+    </row>
+    <row r="38" spans="1:29" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="10" t="s">
+      <c r="J38" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10"/>
-      <c r="AA38" s="10"/>
-      <c r="AB38" s="10"/>
-      <c r="AC38" s="10"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
+      <c r="AB38" s="17"/>
+      <c r="AC38" s="17"/>
     </row>
     <row r="39" spans="1:29" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-    </row>
-    <row r="40" spans="1:29" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
+      <c r="AB39" s="17"/>
+      <c r="AC39" s="17"/>
+    </row>
+    <row r="40" spans="1:29" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
-      <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="17"/>
+      <c r="AC40" s="17"/>
     </row>
     <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="10"/>
-      <c r="AB41" s="10"/>
-      <c r="AC41" s="10"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="17"/>
+      <c r="AC41" s="17"/>
     </row>
     <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
-      <c r="X42" s="13"/>
-      <c r="Y42" s="13"/>
-      <c r="Z42" s="13"/>
-      <c r="AA42" s="13"/>
-      <c r="AB42" s="13"/>
-      <c r="AC42" s="14"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+      <c r="AA42" s="23"/>
+      <c r="AB42" s="23"/>
+      <c r="AC42" s="24"/>
     </row>
     <row r="43" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-    </row>
-    <row r="44" spans="1:29" ht="172.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+    </row>
+    <row r="44" spans="1:29" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10" t="s">
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
-      <c r="Z44" s="10"/>
-      <c r="AA44" s="10"/>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="17"/>
+      <c r="AC44" s="17"/>
     </row>
     <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+      <c r="Z45" s="17"/>
+      <c r="AA45" s="17"/>
+      <c r="AB45" s="17"/>
+      <c r="AC45" s="17"/>
     </row>
     <row r="46" spans="1:29" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="15"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
+      <c r="AC46" s="17"/>
     </row>
     <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="14"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+      <c r="Z47" s="17"/>
+      <c r="AA47" s="17"/>
+      <c r="AB47" s="17"/>
+      <c r="AC47" s="17"/>
     </row>
     <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="14"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
-      <c r="Z48" s="10"/>
-      <c r="AA48" s="10"/>
-      <c r="AB48" s="10"/>
-      <c r="AC48" s="10"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="29"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="25"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="25"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="25"/>
-      <c r="S51" s="26"/>
+      <c r="B51" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="32"/>
     </row>
     <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="19"/>
+      <c r="B52" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="28"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="19"/>
+      <c r="B53" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="28"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="19"/>
+      <c r="B54" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27"/>
+      <c r="S54" s="28"/>
     </row>
     <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="19"/>
+      <c r="B55" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="28"/>
     </row>
     <row r="56" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="19"/>
+      <c r="B56" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="27"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="27"/>
+      <c r="S56" s="28"/>
     </row>
     <row r="57" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="19"/>
-    </row>
-    <row r="58" spans="1:19" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="27"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="27"/>
+      <c r="S57" s="28"/>
+    </row>
+    <row r="58" spans="1:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>38</v>
       </c>
-      <c r="B58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="21"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="21"/>
-      <c r="S58" s="22"/>
+      <c r="B58" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4747,51 +4757,48 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B57:S57"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -5017,18 +5024,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5051,6 +5058,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5065,12 +5080,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C2AE78-184E-414E-865D-7F47F6128945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F558E-141C-46EF-9FB7-A9F10F7B6034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -33,8 +33,62 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={A6D3E5B8-B6C1-4502-9566-932EDDEDA8B5}</author>
+    <author>tc={89555953-D33F-483A-9C0B-AA75FF24A637}</author>
+    <author>tc={65A83373-3B61-4999-8B9F-D9C31F4FA9A0}</author>
+    <author>tc={B5E27F03-7B9E-4BB5-A803-7318F6908227}</author>
+    <author>tc={509A3661-DF64-4FF4-9F3F-ED4BF7B5073C}</author>
+  </authors>
+  <commentList>
+    <comment ref="T22" authorId="0" shapeId="0" xr:uid="{A6D3E5B8-B6C1-4502-9566-932EDDEDA8B5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    U LOCAL_MACHINE nećete moći spremati ako nemate administratorske ovlasti.</t>
+      </text>
+    </comment>
+    <comment ref="T32" authorId="1" shapeId="0" xr:uid="{89555953-D33F-483A-9C0B-AA75FF24A637}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Pod "proces" se misli na zasebnu aplikaciju (npr. EXE) koja završava sa svojim radom tako da operacijskom sustavu vrati neku vrijednost. Tako da, mislim da ovo ne odgovara toj specifikaciji.</t>
+      </text>
+    </comment>
+    <comment ref="T43" authorId="2" shapeId="0" xr:uid="{65A83373-3B61-4999-8B9F-D9C31F4FA9A0}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Iz sigurnosnih razloga ne spremati sol u bazu podataka. Također, nije jasno što sve može biti papar. Ova formula zapravo demonstrira način na koji se generira varijabilna sol?</t>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="3" shapeId="0" xr:uid="{B5E27F03-7B9E-4BB5-A803-7318F6908227}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budem vidjeli na obrani</t>
+      </text>
+    </comment>
+    <comment ref="B53" authorId="4" shapeId="0" xr:uid="{509A3661-DF64-4FF4-9F3F-ED4BF7B5073C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Budem vidjeli na obrani</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="99">
   <si>
     <t>NAPREDNE TEHNIKE PROGRAMIRANJA</t>
   </si>
@@ -1028,9 +1082,6 @@
     </r>
   </si>
   <si>
-    <t>Svaki od entitetskih service klasa sadrži metode save i delete kojom se kreiraju ili brišu podaci iz baze podataka. Primjer je klasa CourseController koja omogućava administrator korisniku da kreira ili briše zapise iz course tablice. Aplikacija također sadrži mogućnost autorizacije profesora mjenjanjem podataka u profesor tablici koja se vrši u AuthorizationController klasi. Validacija promjena vrši se ovisno o povratnoj vrijednosti procesa koji se poziva.</t>
-  </si>
-  <si>
     <t>Podržani jezici su hrvatski i engleski, promjena jezika korisničkog sučelja vrši se promjenom vrijednosti ključa u Windows registru, te automatskim osvježavanjem Thymeleaf templatea. Aplikacija sadrži 13 prevedenih dijaloga.</t>
   </si>
   <si>
@@ -1073,134 +1124,7 @@
     <t>Uporabom vanjske aplikacije i prilagođenog URL protokola ostvareno je učitavanje .dll biblioteke koja se  može pokrenuti ručno ili se poziva kada korisnik pokuša preuzeti izvještaj o ocjenama. Dinamička biblioteka izlaže tri funkcije, jedna skida sadržaj sa servera i posprema ga u datoteku u korisničkovom "Downloads" direktoriju, druga vrši verifikaciju digitalnog potpisa, a treća otvara obavještajni prozor. Osim izloženih funkcija, u biblioteci se nalaze i pomoćne funkcije: funkcija za dobavljanje korisnikovog direktorija za preuzimanja, funkcije za formatiranje vrijednosti za prikaz, funkcija za učitavanje sirovih bajtova datoteka u vektor, funkcije korištene za obavljanje preuzimanja curl bibliotekom (header_callback, write_callback, progress_callback), funkcija za izradu GUI prozora te funkcija samog preuzimanja koja se koristi kod paralelnog izvođenja.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Aplikacija u bazu podataka lozinke sprema u MD5 obliku uporabom java.security.MessageDigest alata. Ovaj alat pretvara upisani string u MD5 hash koji se šalje Restful poslužitelju za upis u bazu podataka. Sol se nasumično generira te se  posprema u bazu podataka i dodaje na kraj lozinke. Za papar se koristi niz od osam stringova nad kojim se vrši lookup. Indeks papra koji će se upotrijebiti se određuje prema korisničkom imenu tako da se računa checksum te se uzima ostatak dijeljenja sa 8 po formuli: 
-gdje je:
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>duljina korisničkog imena</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-    - </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>ᵢ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">znak na poziciji </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> u korisničkom imenu</t>
-    </r>
-  </si>
-  <si>
     <t>Jezgrena aplikacija je podijeljena na dva dijela (dvije zasebne aplikacije), prvi dio je poslužitelj koji sadrži web korisnička sučelja, a drugi je Restful poslužitelj koji sadrži API-ove za komunikaciju s bazom podataka te ih izlaže na HTTP adresu na koju se prvi poslužitelj spaja uporabom RestTemplate-a kako bi dobavio podatke o studentima, profesorima, ocjenama, itd. Na drugom poslužitelju implementirani su Get, Post, Put i Delete request mapperi za svaku od tablica u bazi podataka. Ovim načinom implementirana je komunikacija s bazom podataka. Restful poslužitelj i sama aplikacija aktivni su na lokalnom Apache Tomcat poslužitelju ugrađenom u Spring Framework.</t>
-  </si>
-  <si>
-    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_LOCAL_MACHINE\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
   </si>
   <si>
     <r>
@@ -1599,12 +1523,38 @@
     <t>Distribucija klijentske aplikacije vrši se installerom koji je kompajliran pomoću Inno Setup alata. Ovaj installer generira izvršivu datoteku u direktorij definiran od strane korisnika, u istom direktoriju
 generira autorski certifikat koji sadrži javni ključ za verificiranje digitalnih potpisa te također registrira prilagođeni URL protokol u Windows registre (Computer\HKEY_CLASSES_ROOT\ntpr) koji pokazuje na generiranu izvršivu datoteku.</t>
   </si>
+  <si>
+    <t>Aplikacija koristi datoteku formata .properties (sličan INI formatu, sastoji se od key-value parova) za učitavanje postavki koje se koriste za konfiguraciju e-mail agenta koji šalje automatske e-mailove te također sadrži API ključ koji servis za automatsko slanje e-maila koristi za pristup bazi podataka. Postavke se iz .properties datoteke učitavaju povezanom Spring komponentom AppProperties. Aplikacija također u HKEY_CURRENT_USER\SOFTWARE\NTPR\JavaApp\Language ključu Windows registra sprema podatak o tome koji se jezik korisničkog sučelja trenutno koristi. Ključ sardži vrijednost "lang" koja može biti "ENG" ili "HRV". Ova se vrijednost dalje koristi u servisu koji upravlja jezikom aplikacije implementacijom prijevoda u messages resource bundle-u.</t>
+  </si>
+  <si>
+    <t>Tijekom generacije izvještaja o ocjenama vrši se automatska provjera validnosti digitalnog potpisa u slučaju da je došlo do greške tijekom potpisivanja. Ova provjera se vrši barebones verzijom klijentske aplikacije implementirane na poslužitelju u obliku .exe datoteke. Proces se poziva java.io.ProcessBuilder zanačajkom te vraća jedan od slijedećih izlaznih vrijednosti:
+0 - važeći potpis
+-1 - greška kod čitanja datoteke potpisa/certifikata
+1 - nevažeći potpis
+2 - greška kod parsiranja potpisa/certifikata iz pripadajućih datoteka
+3 - greška kod kreacije message digest konteksta
+4 - greška kod inicijalizacije verifikatora
+5 - greška kod verifikacije
+U slučaju da validacija ne uspije generirane datoteke se automatski brišu te se korisniku prikazuje poruka o neuspješnoj generaciji.</t>
+  </si>
+  <si>
+    <t>Aplikacija lozinke pohranjuje u bazu podataka u obliku hasha. Lozinka se prvo "posoli" te "zapapri" te sažima SHA-256 algoritmom. Sol je promjenjiva te se izračunava iz vrijednosti korisničkog imena. Korisničko se ime dijeli na parove znakova (npr. korisničko ime "tim2" rezultiralo bi parovima "ti", "im" i "m2"). Svaki se par znakova hashira SHA-256 algoritmom. Bajtovi rezultata hashiranja interpretiraju se kao brojevi s tim da svaka četiri bajta rezultiraju jednim integerom u big endian notaciji. Svaki rezultirajući integer se dijeli s 361 te se uzima ostatak dijeljenja. Ako je rezultirajuća vrijednost negativna njoj se dodaje 361. Ta se vrijednost tada dodaje u izlazni string (sol) u obliku broja s bazom 36 (moguće znamenke su  0-9 i a-z). Za papar se uzima nasumična vrijednost između 0 i 7 koja služi kao index za predefinirani niz stringova. Na poslužitelju se sol izračunava istim algoritmom i dodaju se svih 8 papara te se provjerava valjanost svih 8 dobivenih lozinaka. Ako se jedna od njih uspješno potvrdi, poslužitelj odobri zahtjev za prijavu.</t>
+  </si>
+  <si>
+    <t>promijenjen hive u HKCU</t>
+  </si>
+  <si>
+    <t>dodana funkcionalnost provjere digitalnog potpisa u trenutku generacije uporabom vanjske aplikacije</t>
+  </si>
+  <si>
+    <t>promijenjen algoritam računanja soli i papra; sol se više ne sprema u bazu podataka</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1740,19 +1690,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1949,7 +1893,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,6 +1970,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2035,33 +2009,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2082,490 +2038,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1047750</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1402080" cy="575310"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893607FF-A631-4FCC-01DA-B2C8DAE7362D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13510260" y="33653730"/>
-              <a:ext cx="1402080" cy="575310"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:d>
-                      <m:dPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:dPr>
-                      <m:e>
-                        <m:nary>
-                          <m:naryPr>
-                            <m:chr m:val="∑"/>
-                            <m:limLoc m:val="undOvr"/>
-                            <m:grow m:val="on"/>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:naryPr>
-                          <m:sub>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>=0</m:t>
-                            </m:r>
-                          </m:sub>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−1</m:t>
-                            </m:r>
-                          </m:sup>
-                          <m:e>
-                            <m:sSub>
-                              <m:sSubPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSubPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑐</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1050" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑖</m:t>
-                                </m:r>
-                              </m:sub>
-                            </m:sSub>
-                          </m:e>
-                        </m:nary>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>×</m:t>
-                        </m:r>
-                        <m:sSup>
-                          <m:sSupPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:sSupPr>
-                          <m:e>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>31</m:t>
-                            </m:r>
-                          </m:e>
-                          <m:sup>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑛</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>−</m:t>
-                            </m:r>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1050" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>𝑖</m:t>
-                            </m:r>
-                          </m:sup>
-                        </m:sSup>
-                      </m:e>
-                    </m:d>
-                    <m:func>
-                      <m:funcPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:funcPr>
-                      <m:fName>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>mod</m:t>
-                        </m:r>
-                      </m:fName>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-GB" sz="1050" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>8</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:func>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893607FF-A631-4FCC-01DA-B2C8DAE7362D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13510260" y="33653730"/>
-              <a:ext cx="1402080" cy="575310"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(∑129_(𝑖=0)^(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−1)▒𝑐_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ×31^(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑛</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-GB" sz="1050" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) )  mod⁡8</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Željko Kovačević (zkovacev1)" id="{771378EC-D502-4358-9CEE-9A72421DB7B9}" userId="S::zkovacev1@tvz.hr::f932f5c1-86cd-409f-ae07-bd61e962d13a" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2863,18 +2339,39 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="T22" dT="2025-08-25T08:37:16.84" personId="{771378EC-D502-4358-9CEE-9A72421DB7B9}" id="{A6D3E5B8-B6C1-4502-9566-932EDDEDA8B5}">
+    <text>U LOCAL_MACHINE nećete moći spremati ako nemate administratorske ovlasti.</text>
+  </threadedComment>
+  <threadedComment ref="T32" dT="2025-08-25T08:39:54.59" personId="{771378EC-D502-4358-9CEE-9A72421DB7B9}" id="{89555953-D33F-483A-9C0B-AA75FF24A637}">
+    <text>Pod "proces" se misli na zasebnu aplikaciju (npr. EXE) koja završava sa svojim radom tako da operacijskom sustavu vrati neku vrijednost. Tako da, mislim da ovo ne odgovara toj specifikaciji.</text>
+  </threadedComment>
+  <threadedComment ref="T43" dT="2025-08-25T08:42:18.27" personId="{771378EC-D502-4358-9CEE-9A72421DB7B9}" id="{65A83373-3B61-4999-8B9F-D9C31F4FA9A0}">
+    <text>Iz sigurnosnih razloga ne spremati sol u bazu podataka. Također, nije jasno što sve može biti papar. Ova formula zapravo demonstrira način na koji se generira varijabilna sol?</text>
+  </threadedComment>
+  <threadedComment ref="B52" dT="2025-08-25T08:43:51.41" personId="{771378EC-D502-4358-9CEE-9A72421DB7B9}" id="{B5E27F03-7B9E-4BB5-A803-7318F6908227}">
+    <text>Budem vidjeli na obrani</text>
+  </threadedComment>
+  <threadedComment ref="B53" dT="2025-08-25T08:44:00.63" personId="{771378EC-D502-4358-9CEE-9A72421DB7B9}" id="{509A3661-DF64-4FF4-9F3F-ED4BF7B5073C}">
+    <text>Budem vidjeli na obrani</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
-  <dimension ref="A1:AC58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
+  <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="V60" sqref="V60"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42:AC42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="9" max="9" width="7.77734375" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="30" max="30" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2993,7 +2490,7 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3186,7 +2683,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="1:29" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -3207,7 +2704,7 @@
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
     </row>
-    <row r="18" spans="1:29" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -3235,20 +2732,20 @@
       <c r="Q18" s="19"/>
       <c r="R18" s="19"/>
       <c r="S18" s="19"/>
-      <c r="T18" s="34" t="s">
+      <c r="T18" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
-    </row>
-    <row r="19" spans="1:29" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="40"/>
+      <c r="X18" s="40"/>
+      <c r="Y18" s="40"/>
+      <c r="Z18" s="40"/>
+      <c r="AA18" s="40"/>
+      <c r="AB18" s="40"/>
+      <c r="AC18" s="40"/>
+    </row>
+    <row r="19" spans="1:30" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -3277,7 +2774,7 @@
       <c r="R19" s="20"/>
       <c r="S19" s="20"/>
       <c r="T19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
@@ -3289,7 +2786,7 @@
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
     </row>
-    <row r="20" spans="1:29" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -3318,7 +2815,7 @@
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
       <c r="T20" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U20" s="17"/>
       <c r="V20" s="17"/>
@@ -3330,7 +2827,7 @@
       <c r="AB20" s="17"/>
       <c r="AC20" s="17"/>
     </row>
-    <row r="21" spans="1:29" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -3359,7 +2856,7 @@
       <c r="R21" s="21"/>
       <c r="S21" s="21"/>
       <c r="T21" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U21" s="17"/>
       <c r="V21" s="17"/>
@@ -3371,7 +2868,7 @@
       <c r="AB21" s="17"/>
       <c r="AC21" s="17"/>
     </row>
-    <row r="22" spans="1:29" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -3400,7 +2897,7 @@
       <c r="R22" s="17"/>
       <c r="S22" s="17"/>
       <c r="T22" s="17" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="U22" s="17"/>
       <c r="V22" s="17"/>
@@ -3411,8 +2908,11 @@
       <c r="AA22" s="17"/>
       <c r="AB22" s="17"/>
       <c r="AC22" s="17"/>
-    </row>
-    <row r="23" spans="1:29" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD22" s="42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="122.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -3441,7 +2941,7 @@
       <c r="R23" s="17"/>
       <c r="S23" s="17"/>
       <c r="T23" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="U23" s="17"/>
       <c r="V23" s="17"/>
@@ -3453,7 +2953,7 @@
       <c r="AB23" s="17"/>
       <c r="AC23" s="17"/>
     </row>
-    <row r="24" spans="1:29" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -3492,7 +2992,7 @@
       <c r="AB24" s="17"/>
       <c r="AC24" s="17"/>
     </row>
-    <row r="25" spans="1:29" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -3521,7 +3021,7 @@
       <c r="R25" s="17"/>
       <c r="S25" s="17"/>
       <c r="T25" s="17" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="U25" s="17"/>
       <c r="V25" s="17"/>
@@ -3533,7 +3033,7 @@
       <c r="AB25" s="17"/>
       <c r="AC25" s="17"/>
     </row>
-    <row r="26" spans="1:29" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
@@ -3562,7 +3062,7 @@
       <c r="R26" s="17"/>
       <c r="S26" s="17"/>
       <c r="T26" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
@@ -3574,7 +3074,7 @@
       <c r="AB26" s="17"/>
       <c r="AC26" s="17"/>
     </row>
-    <row r="27" spans="1:29" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -3603,7 +3103,7 @@
       <c r="R27" s="17"/>
       <c r="S27" s="17"/>
       <c r="T27" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U27" s="17"/>
       <c r="V27" s="17"/>
@@ -3615,7 +3115,7 @@
       <c r="AB27" s="17"/>
       <c r="AC27" s="17"/>
     </row>
-    <row r="28" spans="1:29" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -3644,7 +3144,7 @@
       <c r="R28" s="17"/>
       <c r="S28" s="17"/>
       <c r="T28" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U28" s="17"/>
       <c r="V28" s="17"/>
@@ -3656,7 +3156,7 @@
       <c r="AB28" s="17"/>
       <c r="AC28" s="17"/>
     </row>
-    <row r="29" spans="1:29" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -3695,7 +3195,7 @@
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
     </row>
-    <row r="30" spans="1:29" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -3734,7 +3234,7 @@
       <c r="AB30" s="17"/>
       <c r="AC30" s="17"/>
     </row>
-    <row r="31" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -3773,7 +3273,7 @@
       <c r="AB31" s="17"/>
       <c r="AC31" s="17"/>
     </row>
-    <row r="32" spans="1:29" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -3802,7 +3302,7 @@
       <c r="R32" s="17"/>
       <c r="S32" s="17"/>
       <c r="T32" s="17" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="U32" s="17"/>
       <c r="V32" s="17"/>
@@ -3813,8 +3313,11 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
       <c r="AC32" s="17"/>
-    </row>
-    <row r="33" spans="1:29" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD32" s="41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" ht="79.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -3853,7 +3356,7 @@
       <c r="AB33" s="17"/>
       <c r="AC33" s="17"/>
     </row>
-    <row r="34" spans="1:29" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
@@ -3892,7 +3395,7 @@
       <c r="AB34" s="17"/>
       <c r="AC34" s="17"/>
     </row>
-    <row r="35" spans="1:29" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
@@ -3921,7 +3424,7 @@
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
       <c r="T35" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="U35" s="17"/>
       <c r="V35" s="17"/>
@@ -3933,7 +3436,7 @@
       <c r="AB35" s="17"/>
       <c r="AC35" s="17"/>
     </row>
-    <row r="36" spans="1:29" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
@@ -3972,7 +3475,7 @@
       <c r="AB36" s="17"/>
       <c r="AC36" s="17"/>
     </row>
-    <row r="37" spans="1:29" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
@@ -4011,7 +3514,7 @@
       <c r="AB37" s="17"/>
       <c r="AC37" s="17"/>
     </row>
-    <row r="38" spans="1:29" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
@@ -4040,7 +3543,7 @@
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
       <c r="T38" s="17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="U38" s="17"/>
       <c r="V38" s="17"/>
@@ -4052,7 +3555,7 @@
       <c r="AB38" s="17"/>
       <c r="AC38" s="17"/>
     </row>
-    <row r="39" spans="1:29" ht="106.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
@@ -4081,7 +3584,7 @@
       <c r="R39" s="17"/>
       <c r="S39" s="17"/>
       <c r="T39" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="U39" s="17"/>
       <c r="V39" s="17"/>
@@ -4093,7 +3596,7 @@
       <c r="AB39" s="17"/>
       <c r="AC39" s="17"/>
     </row>
-    <row r="40" spans="1:29" ht="148.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
@@ -4122,7 +3625,7 @@
       <c r="R40" s="17"/>
       <c r="S40" s="17"/>
       <c r="T40" s="17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U40" s="17"/>
       <c r="V40" s="17"/>
@@ -4134,7 +3637,7 @@
       <c r="AB40" s="17"/>
       <c r="AC40" s="17"/>
     </row>
-    <row r="41" spans="1:29" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -4173,7 +3676,7 @@
       <c r="AB41" s="17"/>
       <c r="AC41" s="17"/>
     </row>
-    <row r="42" spans="1:29" ht="68.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="68.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -4212,7 +3715,7 @@
       <c r="AB42" s="23"/>
       <c r="AC42" s="24"/>
     </row>
-    <row r="43" spans="1:29" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -4240,20 +3743,23 @@
       <c r="Q43" s="17"/>
       <c r="R43" s="17"/>
       <c r="S43" s="17"/>
-      <c r="T43" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-    </row>
-    <row r="44" spans="1:29" ht="196.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T43" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" ht="196.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
@@ -4282,7 +3788,7 @@
       <c r="R44" s="17"/>
       <c r="S44" s="17"/>
       <c r="T44" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="U44" s="17"/>
       <c r="V44" s="17"/>
@@ -4294,7 +3800,7 @@
       <c r="AB44" s="17"/>
       <c r="AC44" s="17"/>
     </row>
-    <row r="45" spans="1:29" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
@@ -4333,7 +3839,7 @@
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
     </row>
-    <row r="46" spans="1:29" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
@@ -4362,7 +3868,7 @@
       <c r="R46" s="17"/>
       <c r="S46" s="17"/>
       <c r="T46" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U46" s="17"/>
       <c r="V46" s="17"/>
@@ -4374,7 +3880,7 @@
       <c r="AB46" s="17"/>
       <c r="AC46" s="17"/>
     </row>
-    <row r="47" spans="1:29" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
@@ -4403,7 +3909,7 @@
       <c r="R47" s="17"/>
       <c r="S47" s="17"/>
       <c r="T47" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U47" s="17"/>
       <c r="V47" s="17"/>
@@ -4415,7 +3921,7 @@
       <c r="AB47" s="17"/>
       <c r="AC47" s="17"/>
     </row>
-    <row r="48" spans="1:29" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
@@ -4456,119 +3962,119 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="32"/>
+      <c r="B51" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34"/>
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="35"/>
     </row>
     <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="27"/>
-      <c r="P52" s="27"/>
-      <c r="Q52" s="27"/>
-      <c r="R52" s="27"/>
-      <c r="S52" s="28"/>
+      <c r="B52" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="38"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="27"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="27"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="27"/>
-      <c r="R53" s="27"/>
-      <c r="S53" s="28"/>
+      <c r="B53" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="38"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -4593,7 +4099,7 @@
         <v>35</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -4618,7 +4124,7 @@
         <v>36</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -4643,7 +4149,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -4667,26 +4173,26 @@
       <c r="A58" s="9">
         <v>38</v>
       </c>
-      <c r="B58" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="37"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37"/>
-      <c r="S58" s="38"/>
+      <c r="B58" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="30"/>
+      <c r="R58" s="30"/>
+      <c r="S58" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="109">
@@ -4802,11 +4308,17 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7005DF65C69D244A0053930B4D80895" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfe4224a46d45a1569ee43293fdcdd48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a217f1db-afc0-486b-a03f-32483c6d35f7" xmlns:ns4="b3fc9c33-149f-45e5-9bdb-a4f7fe310215" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d8dd93a9b58d240e8e3304885c0c0fa" ns3:_="" ns4:_="">
     <xsd:import namespace="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
@@ -5023,7 +4535,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5032,13 +4544,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b3fc9c33-149f-45e5-9bdb-a4f7fe310215"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D0DA503-506E-48B5-9538-4DAB746C5D15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5057,27 +4580,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b3fc9c33-149f-45e5-9bdb-a4f7fe310215"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Prijavnica.xlsx
+++ b/Prijavnica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pavic\IdeaProjects\JavaWebAppNTPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5F558E-141C-46EF-9FB7-A9F10F7B6034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4349D-4686-482F-AD89-D8117C7240FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16848" xr2:uid="{6E3D7DB7-27B3-4496-A59A-1903852127ED}"/>
   </bookViews>
@@ -1922,40 +1922,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1968,7 +1941,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2010,14 +1986,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2363,8 +2363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6689B64-C06F-4EF3-9A6F-7B6BB9FDA467}">
   <dimension ref="A1:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42:AC42"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2375,540 +2375,540 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
     </row>
     <row r="13" spans="1:19" ht="210" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
     </row>
     <row r="17" spans="1:30" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
-      <c r="S17" s="16"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
     </row>
     <row r="18" spans="1:30" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
       <c r="I18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="40" t="s">
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="U18" s="40"/>
-      <c r="V18" s="40"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="40"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
     </row>
     <row r="19" spans="1:30" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="4">
         <v>3</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="17" t="s">
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
-      <c r="Y19" s="20"/>
-      <c r="Z19" s="20"/>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="16"/>
+      <c r="AC19" s="16"/>
     </row>
     <row r="20" spans="1:30" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
       <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="17" t="s">
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
     </row>
     <row r="21" spans="1:30" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="4">
         <v>4</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="17" t="s">
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
     </row>
     <row r="22" spans="1:30" ht="118.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
       <c r="I22" s="4">
         <v>5</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17" t="s">
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="42" t="s">
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2916,404 +2916,404 @@
       <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
       <c r="I23" s="4">
         <v>8</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AB23" s="17"/>
-      <c r="AC23" s="17"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
     </row>
     <row r="24" spans="1:30" ht="109.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="35"/>
       <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
     </row>
     <row r="25" spans="1:30" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="35"/>
       <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17" t="s">
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
     </row>
     <row r="26" spans="1:30" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
       <c r="I26" s="4">
         <v>4</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17" t="s">
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
     </row>
     <row r="27" spans="1:30" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="4">
         <v>3</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
     </row>
     <row r="28" spans="1:30" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="4">
         <v>5</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17" t="s">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
     </row>
     <row r="29" spans="1:30" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="4">
         <v>5</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="16"/>
+      <c r="AB29" s="16"/>
+      <c r="AC29" s="16"/>
     </row>
     <row r="30" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
       <c r="I30" s="4">
         <v>2</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
     </row>
     <row r="31" spans="1:30" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
       <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
     </row>
     <row r="32" spans="1:30" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="4">
         <v>4</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17" t="s">
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="41" t="s">
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="10" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3321,441 +3321,441 @@
       <c r="A33" s="3">
         <v>15</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="25"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
       <c r="I33" s="4">
         <v>5</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
     </row>
     <row r="34" spans="1:30" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B34" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="25"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="4">
         <v>5</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-      <c r="AB34" s="17"/>
-      <c r="AC34" s="17"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
     </row>
     <row r="35" spans="1:30" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
       <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17" t="s">
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-      <c r="AB35" s="17"/>
-      <c r="AC35" s="17"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
     </row>
     <row r="36" spans="1:30" ht="55.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
     </row>
     <row r="37" spans="1:30" ht="90.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
       <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-      <c r="AB37" s="17"/>
-      <c r="AC37" s="17"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
     </row>
     <row r="38" spans="1:30" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
       <c r="I38" s="4">
         <v>3</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17" t="s">
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-      <c r="AB38" s="17"/>
-      <c r="AC38" s="17"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
+      <c r="X38" s="12"/>
+      <c r="Y38" s="12"/>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12"/>
+      <c r="AC38" s="12"/>
     </row>
     <row r="39" spans="1:30" ht="106.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
       <c r="I39" s="4">
         <v>6</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17" t="s">
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
     </row>
     <row r="40" spans="1:30" ht="148.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
       <c r="I40" s="4">
         <v>4</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17" t="s">
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
     </row>
     <row r="41" spans="1:30" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
       <c r="I41" s="3">
         <v>2</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
     </row>
     <row r="42" spans="1:30" ht="68.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="3">
         <v>3</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="23"/>
-      <c r="AB42" s="23"/>
-      <c r="AC42" s="24"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="14"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="15"/>
     </row>
     <row r="43" spans="1:30" ht="157.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
       <c r="I43" s="3">
         <v>7</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17" t="s">
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="42" t="s">
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3763,484 +3763,481 @@
       <c r="A44" s="3">
         <v>26</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17" t="s">
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="12"/>
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
     </row>
     <row r="45" spans="1:30" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
       <c r="I45" s="3">
         <v>3</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
     </row>
     <row r="46" spans="1:30" ht="138.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="15"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="35"/>
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17" t="s">
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="12"/>
+      <c r="Y46" s="12"/>
+      <c r="Z46" s="12"/>
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
     </row>
     <row r="47" spans="1:30" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>29</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="24"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="15"/>
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17" t="s">
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
     </row>
     <row r="48" spans="1:30" ht="41.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>30</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="24"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="15"/>
       <c r="I48" s="3">
         <v>3</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="12"/>
+      <c r="T48" s="12"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
+      <c r="X48" s="12"/>
+      <c r="Y48" s="12"/>
+      <c r="Z48" s="12"/>
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
       <c r="J49" s="1"/>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
     </row>
     <row r="51" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>31</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B51" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="34"/>
-      <c r="N51" s="34"/>
-      <c r="O51" s="34"/>
-      <c r="P51" s="34"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="34"/>
-      <c r="S51" s="35"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="27"/>
     </row>
     <row r="52" spans="1:19" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>32</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="37"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="37"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="37"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="37"/>
-      <c r="S52" s="38"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="29"/>
+      <c r="N52" s="29"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="30"/>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>33</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="38"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="30"/>
     </row>
     <row r="54" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>34</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="27"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="27"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="27"/>
-      <c r="R54" s="27"/>
-      <c r="S54" s="28"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="19"/>
+      <c r="R54" s="19"/>
+      <c r="S54" s="20"/>
     </row>
     <row r="55" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>35</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="27"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="27"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="27"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="28"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="19"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="19"/>
+      <c r="R55" s="19"/>
+      <c r="S55" s="20"/>
     </row>
     <row r="56" spans="1:19" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>36</v>
       </c>
-      <c r="B56" s="26" t="s">
+      <c r="B56" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="27"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="27"/>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="27"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="28"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="19"/>
+      <c r="P56" s="19"/>
+      <c r="Q56" s="19"/>
+      <c r="R56" s="19"/>
+      <c r="S56" s="20"/>
     </row>
     <row r="57" spans="1:19" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>37</v>
       </c>
-      <c r="B57" s="26" t="s">
+      <c r="B57" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="27"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="27"/>
-      <c r="P57" s="27"/>
-      <c r="Q57" s="27"/>
-      <c r="R57" s="27"/>
-      <c r="S57" s="28"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="20"/>
     </row>
     <row r="58" spans="1:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>38</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="30"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="30"/>
-      <c r="S58" s="31"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="T48:AC48"/>
-    <mergeCell ref="T43:AC43"/>
-    <mergeCell ref="T44:AC44"/>
-    <mergeCell ref="T45:AC45"/>
-    <mergeCell ref="T46:AC46"/>
-    <mergeCell ref="T47:AC47"/>
-    <mergeCell ref="T38:AC38"/>
-    <mergeCell ref="T39:AC39"/>
-    <mergeCell ref="T40:AC40"/>
-    <mergeCell ref="T41:AC41"/>
-    <mergeCell ref="T42:AC42"/>
-    <mergeCell ref="T33:AC33"/>
-    <mergeCell ref="T34:AC34"/>
-    <mergeCell ref="T35:AC35"/>
-    <mergeCell ref="T36:AC36"/>
-    <mergeCell ref="T37:AC37"/>
-    <mergeCell ref="T28:AC28"/>
-    <mergeCell ref="T29:AC29"/>
-    <mergeCell ref="T30:AC30"/>
-    <mergeCell ref="T31:AC31"/>
-    <mergeCell ref="T32:AC32"/>
-    <mergeCell ref="T23:AC23"/>
-    <mergeCell ref="T24:AC24"/>
-    <mergeCell ref="T25:AC25"/>
-    <mergeCell ref="T26:AC26"/>
-    <mergeCell ref="T27:AC27"/>
-    <mergeCell ref="T18:AC18"/>
-    <mergeCell ref="T19:AC19"/>
-    <mergeCell ref="T20:AC20"/>
-    <mergeCell ref="T21:AC21"/>
-    <mergeCell ref="T22:AC22"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B54:S54"/>
-    <mergeCell ref="B58:S58"/>
-    <mergeCell ref="J48:S48"/>
-    <mergeCell ref="A50:S50"/>
-    <mergeCell ref="B51:S51"/>
-    <mergeCell ref="B52:S52"/>
-    <mergeCell ref="B53:S53"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="J47:S47"/>
-    <mergeCell ref="B55:S55"/>
-    <mergeCell ref="B56:S56"/>
-    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="A1:S3"/>
+    <mergeCell ref="A4:S4"/>
+    <mergeCell ref="A6:S6"/>
+    <mergeCell ref="A7:S13"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="A15:S15"/>
+    <mergeCell ref="A16:S17"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="J22:S22"/>
+    <mergeCell ref="J23:S23"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="J18:S18"/>
+    <mergeCell ref="J19:S19"/>
+    <mergeCell ref="J20:S20"/>
+    <mergeCell ref="J21:S21"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="J27:S27"/>
+    <mergeCell ref="J28:S28"/>
+    <mergeCell ref="J29:S29"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J24:S24"/>
+    <mergeCell ref="J25:S25"/>
+    <mergeCell ref="J26:S26"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J33:S33"/>
+    <mergeCell ref="J34:S34"/>
+    <mergeCell ref="J35:S35"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J30:S30"/>
+    <mergeCell ref="J31:S31"/>
+    <mergeCell ref="J32:S32"/>
     <mergeCell ref="B39:H39"/>
     <mergeCell ref="B40:H40"/>
     <mergeCell ref="B41:H41"/>
@@ -4263,48 +4260,51 @@
     <mergeCell ref="J43:S43"/>
     <mergeCell ref="J44:S44"/>
     <mergeCell ref="B46:H46"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J33:S33"/>
-    <mergeCell ref="J34:S34"/>
-    <mergeCell ref="J35:S35"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J30:S30"/>
-    <mergeCell ref="J31:S31"/>
-    <mergeCell ref="J32:S32"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="J27:S27"/>
-    <mergeCell ref="J28:S28"/>
-    <mergeCell ref="J29:S29"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J24:S24"/>
-    <mergeCell ref="J25:S25"/>
-    <mergeCell ref="J26:S26"/>
-    <mergeCell ref="A1:S3"/>
-    <mergeCell ref="A4:S4"/>
-    <mergeCell ref="A6:S6"/>
-    <mergeCell ref="A7:S13"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="A15:S15"/>
-    <mergeCell ref="A16:S17"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="J22:S22"/>
-    <mergeCell ref="J23:S23"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="J18:S18"/>
-    <mergeCell ref="J19:S19"/>
-    <mergeCell ref="J20:S20"/>
-    <mergeCell ref="J21:S21"/>
-    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B54:S54"/>
+    <mergeCell ref="B58:S58"/>
+    <mergeCell ref="J48:S48"/>
+    <mergeCell ref="A50:S50"/>
+    <mergeCell ref="B51:S51"/>
+    <mergeCell ref="B52:S52"/>
+    <mergeCell ref="B53:S53"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="J47:S47"/>
+    <mergeCell ref="B55:S55"/>
+    <mergeCell ref="B56:S56"/>
+    <mergeCell ref="B57:S57"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="T18:AC18"/>
+    <mergeCell ref="T19:AC19"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="T48:AC48"/>
+    <mergeCell ref="T43:AC43"/>
+    <mergeCell ref="T44:AC44"/>
+    <mergeCell ref="T45:AC45"/>
+    <mergeCell ref="T46:AC46"/>
+    <mergeCell ref="T47:AC47"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="T41:AC41"/>
+    <mergeCell ref="T42:AC42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -4313,12 +4313,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F7005DF65C69D244A0053930B4D80895" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cfe4224a46d45a1569ee43293fdcdd48">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a217f1db-afc0-486b-a03f-32483c6d35f7" xmlns:ns4="b3fc9c33-149f-45e5-9bdb-a4f7fe310215" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d8dd93a9b58d240e8e3304885c0c0fa" ns3:_="" ns4:_="">
     <xsd:import namespace="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
@@ -4535,6 +4529,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4545,23 +4545,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="b3fc9c33-149f-45e5-9bdb-a4f7fe310215"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D0DA503-506E-48B5-9538-4DAB746C5D15}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4580,6 +4563,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B824CF8-C886-4B4F-A487-88AF19B36662}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="b3fc9c33-149f-45e5-9bdb-a4f7fe310215"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a217f1db-afc0-486b-a03f-32483c6d35f7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8916385B-7771-4B86-AC30-95BD0DD5FA1F}">
   <ds:schemaRefs>
